--- a/output/Total_time_range_data/新疆维吾尔自治区/乌鲁木齐市_学习考察.xlsx
+++ b/output/Total_time_range_data/新疆维吾尔自治区/乌鲁木齐市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,510 +436,560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>294</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>青海省党政代表团来疆考察交流</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/sy/zwxx/552438.htm</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['11月23日至24日，青海省党政代表团来新疆考察交流工作。这是11月24日，自治区党委书记、兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜在乌鲁木齐与青海省委书记、省人大常委会主任陈刚一行举行工作会谈。天山网-新疆日报记者 邹懿摄', '天山网-新疆日报讯（记者王兴瑞报道）青海省党政代表团11月23日至24日来新疆考察交流工作。24日上午，自治区党委书记、兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜在乌鲁木齐与青海省委书记、省人大常委会主任陈刚一行举行工作会谈，围绕贯彻落实习近平总书记、党中央关于新疆和青海工作各项决策部署，锚定各自在中国式现代化中的战略定位，进一步就巩固深化两省区全方位交流合作深入沟通。', '自治区人大常委会主任祖木热提·吾布力，自治区党委副书记、兵团政委李邑飞，自治区党委副书记、乌鲁木齐市委书记何忠友参加有关活动。', '马兴瑞代表自治区党委、政府和兵团欢迎青海省党政代表团来疆考察交流。他说，今年3月新疆党政代表团赴青海学习考察以来，两省区交流合作机制不断完善，能源、交通、生态文明建设等领域互利合作进一步拓展。此次青海省党政代表团来疆考察，体现了青海省委、省政府对加强两省区交流合作的高度重视，必将推动新时代双方全方位合作迈上新台阶。前不久，习近平总书记时隔一年后再次来到新疆，听取自治区和兵团工作汇报并发表重要讲话，为我们在中国式现代化进程中更好建设美丽新疆进一步指明了方向。新疆牢记嘱托、感恩奋进，完整准确全面贯彻新时代党的治疆方略，扎实推进事关长治久安的根本性、基础性、长远性工作，团结带领各族干部群众奋力谱写中国式现代化新疆篇章。新疆和青海在维护国家国土安全、资源能源安全、生态安全等方面都承担着重要战略使命，共同面临着推动高质量发展、扩大高水平开放的重要战略机遇。当前青海省推进青藏高原生态保护和高质量发展不断取得新进展新成效，与新疆深化合作、携手服务和融入新发展格局的潜力和优势不断凸显。希望双方切实发挥好合作机制作用，保持各层级各领域密切交流，加快推动重大合作事项落地，积极拓展新的合作领域，加强民族宗教等工作交流借鉴，共同铸牢中华民族共同体意识，为强国建设、民族复兴作出积极贡献。', '陈刚代表青海省委省政府和全省各族人民向新疆维吾尔自治区党委、政府和兵团长期以来给予青海的支持帮助表示感谢。他说，新疆和青海同处祖国西部，在党和国家工作全局中具有特殊重要的地位。深入贯彻落实习近平总书记重大要求和党中央决策部署，两省区肩负着共同的责任使命。新疆作为我国向西开放的桥头堡，完整准确全面贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，推动改革发展、民族团结、社会进步、民生改善、边防巩固取得新成就，踏上了在中国式现代化进程中更好建设美丽新疆新征程。新疆取得的优异成绩为青海树立了榜样、带来了重大发展机遇，新疆在依法治疆、民族与宗教事务治理等方面的好经验好做法值得我们认真学习借鉴。党的十八大以来，青海坚定不移沿着习近平总书记指引的方向前进，立足“三个最大”省情定位和“三个更加重要”战略地位，打造生态文明高地、建设产业“四地”，奋力谱写全面建设社会主义现代化国家的青海篇章。希望两省区发挥各自优势、深化交流合作、携手融入国家发展战略，在铸牢中华民族共同体意识、建设国家公园、发展清洁能源产业、共建“一带一路”等方面进一步沟通协作，以实际行动把习近平总书记擘画的宏伟蓝图变成美好现实，不断开创两地社会大局和谐稳定、经济社会高质量发展的新局面。', '11月23日，青海省党政代表团一行在新疆伊斯兰教经学院喀什分院考察。天山网-新疆日报记者 邹懿摄', '在疆期间，青海省党政代表团深入喀什地区，考察喀什市乃则尔巴格镇前进村、吾斯塘博依路社区、新疆伊斯兰教经学院喀什分院，在乌鲁木齐市考察天山区固原巷社区、新疆国际大巴扎便民警务站等地，围绕维护社会稳定、铸牢中华民族共同体意识、基层治理、民生改善等工作深入调研交流。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>294</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>年度乌鲁木齐市财政局部门决算公开说明</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-09-05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/czj/406268.htm</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['根据乌鲁木齐市人民政府《乌鲁木齐市财政局主要职责内设机构和人员编制规定》（乌政办〔2018〕7号），乌鲁木齐市财政局（以下简称市财政局）为市人民政府工作部门。', '一是取消的职责：自治区人民政府、市人民政府公布取消的行政审批事项和需要取消的其他职责。二是下放的职责：市人民政府公布下放的行政审批事项和需要下放的其他职责。三是增加的职责：1.负责研究拟订政府向社会力量购买服务的政策措施和管理办法并组织实施。2.承担市本级财政总预决算、部门预决算公开工作。3.负责权责发生制政府综合财务报告的编制工作。4.组织协调公务卡制度和预算执行动态监控制度的贯彻执行。5.负责监督、指导政府和社会资本合作模式（PPP）在公共服务和基础设施建设等领域的推广运用。四是加强的职责：1.加强地方政府债务管理，规范政府举债行为。2.加强彩票公益金预算管理，提高资金使用效益。', '1.贯彻执行国家、自治区和我市有关财政、税收、行政事业单位国有资产管理的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，组织编制我市财政工作中长期规划、年度计划，并组织实施和监督检查；参与有关税收制度和办法的拟订。', '2.根据我市国民经济和社会发展战略，拟订财政发展战略和中长期规划，参与制定宏观经济政策，提出运用财税政策实施宏观经济调控和综合平衡社会财力的建议；拟订市本级与区（县）财政体制政策、财政支持企业发展政策，对全市社会财力进行综合平衡。', '3.承担全市各项财政收支管理责任；负责编制市本级预决算草案，代编全市预决算草案并组织执行；受市人民政府委托向市人民代表大会报告市本级和全市预算及其执行情况，向市人大常委会报告决算；组织实施预算绩效评价工作；组织制定市本级预算单位经费开支标准、定额；负责财政预决算和权责发生制政府综合财务报告编制工作；完善对区（县）的转移支付制度。', '4.根据预算安排，拟订财政税收收入计划，并组织实施、管理和监督；按管理权限拟订上报减免税事项和对全市预算影响较大的临时和特殊的地方税减免事项；负责政府非税收入和政府性基金管理；监管财政票据；执行彩票管理政策和有关办法，健全彩票公益金监督机制，提高资金使用效益。', '5.组织实施国库管理和国库集中收付制度、公务卡制度，以及预算执行动态监控制度；按规定开展市本级国库现金管理工作，管理监督区（县）国库资金缴拨使用；负责实施全市财政总预决算、部门预决算公开和政府债务管理工作；负责制定全市政府采购制度并监督管理，研究拟订政府向社会力量购买服务的政策措施和管理办法并组织实施；管理财政统一发放工资津贴工作。', '6.负责制定全市行政事业单位国有资产管理规章制度，按规定管理行政事业单位国有资产，拟订和执行需要全市统一规定的开支标准和支出政策。', '7.负责管理政府外债，组织实施外国政府、国际金融组织贷款项目和审核、申报、转贷、签订贷款协定以及资金管理工作；承担地方金融企业的国有资产和财务的监管工作；负责监督、指导政府和社会资本合作模式（PPP）在公共服务和基础设施建设等领域的推广运用。', '8.参与拟订建设投资的有关政策，制定全市基本建设财务管理制度，负责政府性投资项目财政资金管理工作；承担有关政策性补贴和专项储备资金财政管理工作；管理农业综合开发项目、资金及财务；管理各项财政扶贫资金。', '9.会同有关部门管理市财政社会保障和就业及医疗卫生资金管理工作，会同有关部门研究制定社会保障资金（基金）政策和有关的财务管理制度，编制全市社会保障预决算草案。', '10.负责审核和汇总编制全市国有资本经营预决算草案，制定国有资本经营预算的制度和办法，收取市属企业国有资本收益；组织实施企业财务制度，参与制定企业国有资产管理相关制度。', '11.管理和指导全市会计工作，规范会计行为；组织执行国家统一的会计制度和自治区相关补充规定；组织管理会计人员的业务培训和会计人员从业资格证书；指导和监督注册会计师、注册资产评估师工作；指导和管理社会审计工作。', '12.监督检查财税法规、政策的执行情况，反映财政收支管理中的重大问题，提出加强财政管理的政策建议；负责市财政系统信息化建设（金财工程）规划，并组织实施。', '（三）机构设置：纳入市财政局2017年部门预算编制范围的有17个职能处（室），5个参照公务员管理的事业单位（其中1个市政府派驻事业单位），5个全额拨款事业单位。另局属市财政会计职业学校为独立核算的全额拨款事业单位，单独编制部门预算。', '（四）人员编制：市财政局编制人数182人，其中：行政人员编制76人，参照公务员管理的事业单位人员编制59人，全额拨款事业单位人员编制37人，后勤管理人员编制10人。实有在职人数（不含财职校）151人，其中：行政在职67人，参照公务员管理的事业单位人员55人，事业在职人员29人，其中：后勤管理人员9人。离休人员1人。', '（1）因公出国（境）费支出0万元。全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费39.68万元，其中，公务用车购置0万元，公务用车运行维护费39.68万元。主要用于公务车维护保养、保险费、汽油等。2017年单位一般公共财政拨款安排的公务用车购置量0辆，保有量为10辆。', '（3）公务接待费0.39万元。具体是：国内公务接待支出0.39万元，国内公务接待4批次，30人次。主要是按规定程序接待上级财政部门和其他地区财政部门调研、考察、学习等。', '1.总体情况说明：2017年度单位机关运行经费支出249.61万元，比上年增加43.84万元，增长21.31%，主要原因是：人员新增导致工资等经费增加；工作任务调整导致办公用品、报刊杂志、培训费、印刷费增加；车辆老旧导致公务车维修保养费用增加；“访惠聚”工作队租房及相关费用增加等。', '（一）PPP项目专项经费预算安排35万元。截止2017年，全市累计落地PPP项目64个，其中46个项目已正式纳入财政部PPP综合信息平台系统，涉及总投资1570亿元。我局规范“联审联评”机制，严格开展项目实施方案评价、物有所值及财政承受能力论证、绩效评价等相关工作，坚持“规范为先”推进政府与社会资本合作模式，项目推广工作示范效应日益显著。按照年度预算指标，已完成预算目标100%。按照年度预算指标，年底前100%完成年度预算目标。', '（二）投资评审中心评审经费安排200万元。强化财政投资评审职能，对财政资金安排的5万元以上项目，纳入政府采购的维修改造、网络工程项目及部分政府投资建设、环境综合整治等项目的预算、决算进行评审，有效压减不合理投资，提升财政资金管理使用效益，促进部门单位规范项目管理和预算管理水平。按照年度预算指标，已完成预算目标100%。按照年度预算指标项目资金实际支出176.57万元，完成率为88.28%，结余23.43万元。', '（三）票据管理中心票据经费预算安排100万元。我局严格执行财政票据管理有关规定，强化申领使用管理，有效发挥“以票管收”和规范部门单位财政财务管理职能作用。按照年度预算指标，已完成预算目标100%。', '（四）会计从业管理事务专项安排706.91万。严格按照全国会计专业技术资格考试管理办法规定组织乌鲁木齐地区会计职称考试工作，通过加大考场及设备等方面投入，有效提升考务管理水平，大幅降低空置率，极大提升考试效能，不断增强考生服务水平。按照年度预算指标，已完成预算目标100%。按照年度预算指标项目资金实际支出276.11万元，完成率为39.06%（完成率较低主要是会计从业资格考试取消所致），结余430.8万元。', '（五）信息化建设运行费238.1万元。我局强化全市财政工作科技和信息化支撑水平，加大软硬件维护和保障力度，确保金财网络正常运行。按照年度预算指标项目资金实际支出110万元，完成率为46.20%（完成率较低主要由于办公场所未搬迁，未按期更新机房设备），结余128.1万元。', '1.总体情况说明：单位政府采购计划0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元；实际采购0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。', '1.总体情况说明：截至2017年12月31日，资产有偿使用收入合计0万元，资产处置收入合计0万元。其中：已缴国库0万元，已缴财政专户0万元，应缴未缴0万元，单位留用0万元。', '1.总体情况说明：2017年度，本部门单位实行绩效管理的项目0个，涉及预算0万元，项目支出决算0万元。年末民生项目和重点支出项目的绩效评价开展情况及结果：无（无民生项目和重点支出项目）。', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '“三公”经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '2010601财政事务行政运行：反映行政单位（包括实行公务员管理的事业单位）的基本支出；', '2010602财政事务一般行政管理事务：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出；', '2010607财政事务信息化建设：反映财政部门用于“金财工程”等信息化建设方面的支出；', '2010699财政事务其他财政事务支出：反映除上述项目以外其他财政事务方面的支出。', '2080504未归口管理的行政单位离退休：反映未实行归口管理的行政单位（包括实行公务员管理的事业单位）开支的离退休支出；', '2080505机关事业单位基本养老保险缴费支出：反映机关事业单位实施养老保险制度由单位缴纳的基本养老保险费支出；', '2080506机关事务单位职业年金缴费支出：：反映机关事业单位实施养老保险制度由单位缴纳的职业年金支出；', '2080801死亡抚恤：反映按规定用于烈士和牺牲、病故人员家属的一次性和定期抚恤金以及丧葬补助费。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>294</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>乌鲁木齐市商务局粮食局年部门预算及三公经费公开报告</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017-03-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/swj/410715.htm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['乌鲁木齐市商务局（粮食局）2017年 部门预算及三公经费公开报告 - 乌鲁木齐市人民政府', '根据《关于2017年市本级部门预算信息公开有关事项的通知》（乌财预函〔2017〕5号）文件要求，现将经市财政局批复的市商务局（粮食局）2017年部门预算及“三公”经费信息公开如下：', '（一）主要职能。乌鲁木齐市商务局 ( 粮食局 ) 是市人民政府主管全市国内外贸易、对外经济技术合作和粮食工作的工作部门，承担乌鲁木齐市国内贸易管理、对外贸易管理、外商投资和对外经济技术合作、粮食流通管理等职责，协调市级商业中心、特色商业街和各类商品交易市场的规划与建设，研究拟定本市会展经济的规划和计划，承办市人民政府交办的其他事项。', '（二）机构设置。乌鲁木齐市商务局（粮食局）设14个内设机构：办公室、政治处、政策法规处、市场体系建设处、市场秩序处（市酒类专卖管理局、市畜禽屠宰加工冷藏行业管理办公室）、市场运行监测调节处、服务贸易和商贸服务处、对外贸易处、外国投资与对外经济合作处、粮食管理处、粮食储备调控处、财务审计处、纪检监察室、老干部工作处。', '市商务局（粮食局）下设3个直属事业单位（均参照公务员管理）：中国国际贸易促进委员会乌鲁木齐市委员会（中国国际商会乌鲁木齐商会）（副县级）、乌鲁木齐市商务（粮食）稽查支队（副县级）、乌鲁木齐市会展管理中心（中国-亚欧博览会乌鲁木齐市领导委员会办公室）（正科级）。', '乌鲁木齐市商务局（粮食局）本级财政供养人数129人，其中在职人员100人，离休人员24人，其他人员（长休人员）5人。', '乌鲁木齐市商务局（粮食局）汇总2017年度部门预算报表编制范围的单位共计6个，名单见下表：', '乌鲁木齐市商务局（粮食局）2016年部门预算公开内容包括乌鲁木齐市商务局（粮食局）本级预算和所属五个二级预算单位（中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市酒类专卖管理局、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心、新疆国际会展中心）在内的汇总预算。其中，乌鲁木齐市商务局 ( 粮食局 ) 本级、中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心纳入本级统一核算，新疆国际会展中心和乌鲁木齐市酒类专卖管理局为独立核算单位，其中，乌鲁木齐市酒类专卖管理局无预算收支和人员编制。', '一般公共预算拨款中基本支出预算减少1,123.73万元，变动主要原因为工资和福利支出较往年增加382.68万元，主要为2017年新增的机关事业单位基本养老保险缴费支出等；商品和服务支出较往年减少63.41万元，主要为机关运行费用等各项费用的压缩，物业管理费和机关停车费的取消，以及离退休去世等日常公用经费的减少；退休人员自2016年9月起由社保统一发放工资，2017年共减少退休人员各项支出预算合计1,406.86万元；对个人和家庭的补助支出较往年减少36.14万元，主要为去世离休人员相关费用、在职转退休采暖补贴、住房公积金等的减少。', '一般公共预算拨款中项目支出预算减少26万元，为2017年新增项目肉菜流通追溯系统运行维护费用54万元，减少项目蔬菜副食品直销点奖励资金80万元的差额。', '工资福利支出预算主要包括基本工资、津贴补贴、年终一次性奖金、社会保险费、其他工资福利支出。比上年1,050.9万元增加527.23万元，增加50.17%，变动原因为新增加的机关事业单位基本养老保险缴费支出及新疆国际会展中心的工资福利支出。', '商品服务支出预算主要包括办公费、水电费、邮电费、取暖费、培训费、差旅费、公务接待费、工会经费、福利费、公务用车运行维护费、离退休费用、其他商品服务支出。比上年减少63.41万元，减少28.94%，减少原因主要为机关运行费用等各项费用的压缩，物业管理费和机关停车费的取消，以及离退休去世等日常公用经费的减少等。', '对个人和家庭补助支出预算包括离休工资、生活补助、住房公积金、遗孀生活补助、其他个人和家庭补助。', '对个人和家庭的补助支出较往年减少36.14万元，主要为去世离休人员相关费用、在职转退休采暖补贴、住房公积金等的减少。', '2017年，市商务局项目预算140.75万元，其中：成品油市场监管工作经费5万元、储备管理工作经费14万元、单用途预付卡管理工作经费3.75万元、蔬菜牛羊肉直销点工作经费12万元、预备役训练用粮经费22万元、肉菜流通追溯系统运行维护费用54万元、执法稽查专项经费30万元。', '2017年，市商务局（粮食局）项目预算支出较2016年减少26万元，原因是：新增项目肉菜流通追溯系统运行维护费用54万元，减少项目蔬菜副食品直销点奖励资金80万元。', '（二）公务接待费2.04万元，主要为接待有关兄弟省市单位前来调研、学习考察等支出。', '（三）公务用车购置和运行维护费43.00万元，其中，公务用车购置费为0，公务用车运行维护费43万元（基本支出预算39万元，项目支出预算4万元），主要为2017年度车辆保险、执法车辆用油、车辆维修费等，其中购置公务用车数量为0，单位公务用车保有量16辆，单位年末一般公务用车16辆，为执法检查用车辆。', '我局按照要求对21张预算信息公开表格进行了公示，其中有6张为空表，分别为政府性基金预算支出情况表（经济科目）、基金基本支出--工资福利支出、基金基本支出--对个人和家庭补助支出、基金基本支出--商品和服务支出，其他资金基本支出—对个人和家庭补助支出、其他资金基本支出—商品和服务支出。', '（一）基本支出：是指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（二）项目支出：是指在基本支出之外为完成特定的行政工作任务或事业发展目标所发生的支出。', '（三）非税收入：是指除税收以外，由各级政府、国家机关、事业单位、代行政府职能的社会团体及其他组织依法利用政府权力、政府信誉、国家资源、国有资产或提供特定公共服务、准公共服务取得的财政性资金，是政府财政收入的重要组成部分。', '（四）“三公”经费：指各部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际差旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类接待（含外宾接待）费用。', '（五）机关运行经费：各部门的公用经费，包括办公印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料费及一般设备购置费、水电费、取暖费、物业管理费、公车运行维护费等以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>294</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>乌鲁木齐市商务局粮食局年部门决算公开报告</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016-07-19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/swj/365829.htm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['乌鲁木齐市商务局（粮食局）2015年度部门决算公开报告 按照乌鲁木齐市财政局《关于批复2015年度部门决算的通知》（乌财建〔2016〕288号）、《关于做好2015年度自治区部门决算公开工作的通知》(新财库〔2016〕82号)要求，现将经市财政局批复的市商务局（粮食局）2015年度部门决算信息公开如下： 第一部分 乌鲁木齐市商务局（粮食局）概述 一、单位基本情况 （一）主要职能。乌鲁木齐市商务局 ( 粮食局 ) 是市人民政府主管全市国内外贸易、对外经济技术合作和粮食工作的工作部门，承担乌鲁木齐市国内贸易管理、对外贸易管理、外商投资和对外经济技术合作、粮食流通管理等职责，协调市级商业中心、特色商业街和各类商品交易市场的规划与建设，研究拟定本市会展经济的规划和计划，承办市人民政府交办的其他事项，详情如下： 1、贯彻执行国家、自治区和我市有关内外贸易、外资、对外经济合作和粮食工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，编制我市商务粮食工作发展规划及中长期规划、年度计划，并组织实施和监督检查。 2、负责推进流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动流通标准化和连锁经营、商业特许经营、物流配送、电子商务等现代流通方式的发展。 3、会同有关部门拟订我市国内贸易发展规划；促进城乡市场发展，指导大宗产品批发市场规划和城市商业网点规划、商业体系建设工作；推进有关农村市场体系建设；组织实施农村现代流通网络工程；指导、推进供销合作事业发展。 4、承担协调整顿和规范市场经济秩序工作的责任；推动商务粮食领域信用建设；指导商业信用销售；按有关规定对特殊流通行业进行监督管理。 5、承担组织实施重要消费品市场调控和重要生产资料流通管理的责任；负责建立健全重要生活必需品市场供应监测预警体系和应急管理机制；监测分析市场运行、重要商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；按分工负责重要消费品储备管理和市场调控工作；按有关规定对畜禽屠宰、酒类流通、药品流通、成品油流通、食盐流通等行业进行监督管理；组织指导“三绿工程”，负责“菜篮子”产品流通行业管理的相关工作；负责权限内设置畜禽定点屠宰厂（场）的审定。 6、监督管理对外贸易工作，促进对外贸易发展；承担对全市对外贸易经营者备案登记工作；指导我市出口基地和出口品牌建设工作；推进我市进出口贸易标准化工作；管理加工贸易业务；组织实施与进出口公平贸易相关工作。 7、监督管理外商投资工作；指导全市外商投资促进工作；参与拟订我市外商投资中长期发展规划，并组织实施；负责权限内外商投资企业合同、章程的审批。 8、负责对外经济合作工作；指导对外经济合作促进工作；依法监督境外投资、对外工程承包、对外经济合作、对外劳务合作和援外项目工作。 9、会同有关部门制定促进服务贸易和服务外包发展的规划、政策并组织实施，推动服务外包平台建设。 10、指导和管理贸易投资促进工作；指导、协调我市举办的商务领域交易会、洽谈会、博览会、展览会和有关招商活动。 11、负责粮食流通行政管理和行业指导；指导政策性粮食购销和粮食产销合作；负责政策性粮食和军粮的供应与管理；负责粮食流通监督检查；负责储备粮管理工作；负责粮食收购许可及粮油仓储单位备案管理工作。 12、指导商务粮食领域信息化建设，协调信息资源的开发利用和共享，建立完善商务粮食信息公共服务体系；指导和推进电子商务应用与发展。 13、承办市委、市人民政府交办的其他事项。 （二）机构设置。乌鲁木齐市商务局（粮食局）设14个内设机构：办公室、政治处、政策法规处、市场体系建设处、市场秩序处（市酒类专卖管理局、市畜禽屠宰加工冷藏行业管理办公室）、市场运行监测调节处、服务贸易和商贸服务处、对外贸易处、外国投资与对外经济合作处、粮食管理处、粮食储备调控处、财务审计处、纪检监察室、老干部工作处。 市商务局（粮食局）下设3个直属事业单位（均参照公务员管理）：中国国际贸易促进委员会乌鲁木齐市委员会（中国国际商会乌鲁木齐商会）（副县级）、乌鲁木齐市商务（粮食）稽查支队（副县级）、乌鲁木齐市会展管理中心（中国-亚欧博览会乌鲁木齐市领导委员会办公室）（正科级）。 二、部门决算单位构成情况 乌鲁木齐市商务局（粮食局）汇总2015年度部门决算报表编制范围的单位共计6个，名单见下表： 序号 单位名称 备注 01 乌鲁木齐市商务局（粮食局）本级 行政单位 02 中国国际贸易促进委员会乌鲁木齐市委员会 参公管理 03 乌鲁木齐市商务（粮食）稽查支队 参公管理 04 乌鲁木齐市会展管理中心 参公管理 05 乌鲁木齐市酒类专卖管理局 自收自支事业 06 新疆国际会展中心 差额事业 乌鲁木齐市商务局（粮食局）2015年部门决算公开内容包括乌鲁木齐市商务局（粮食局）本级决算和所属五个二级预算单位（中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市酒类专卖管理局、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心、新疆国际会展中心）在内的汇总决算。其中，乌鲁木齐市商务局 ( 粮食局 ) 本级、中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心纳入本级统一核算，新疆国际会展中心和乌鲁木齐市酒类专卖管理局为独立核算单位， 其中，乌鲁木齐市酒类专卖管理局无预算收支和人员编制。 第二部分 乌鲁木齐市商务局（粮食局）2015年度部门决算报表 一、 收入支出决算总表 二、 财政拨款收入支出决算总表 三、 收入支出决算表 四、 收入决算表 五、 支出决算表 六、 支出决算明细表 七、 基本支出决算明细表 八、 项目支出决算明细表 九、 项目收入支出决算表 十、 行政事业类项目收入支出决算表 十一、 基本建设类项目收入支出决算表 十二、 一般公共预算财政拨款收入支出决算表 十三、 一般公共预算财政拨款支出决算明细表 十四、 一般公共预算财政拨款基本支出决算明细表 十五、 一般公共预算财政拨款项目支出决算明细表 十六、 政府性基金预算财政拨款收入支出决算表 十七、 政府性基金预算财政拨款支出决算表 十八、 政府性基金预算财政拨款基本支出决算明细表 十九、 政府性基金预算财政拨款项目支出决算明细表 二十、 财政专户管理资金收入支出决算表 二十一、 资产负债简表 二十二、 资产情况表 二十三、 基本数字表 二十四、 机构人员情况表 详细内容见附件 第三部分 乌鲁木齐市商务局（粮食局）2015年度部门决算情况说明 （一）收支决算总体情况及变动情况说明 市商务局（粮食局）系统本年度汇总收入182,776,812.20元，比2014年度195,634,828.65元减少12,858,016.45元，减少6.57%，本年度汇总实际支出158,700,332.94元，比2014年度170022119.06元减少11321786.12元，减少6.66%。 （二）收入情况说明 乌鲁木齐市商务局（粮食局）系统本年度汇总收入182,776,812.20元（其中：财政拨款123,119,830.91元，经营收入59,600,075.39元，其他收入56,905.90元）， （三）支出情况说明 乌鲁木齐市商务局（粮食局）本年度汇总实际支出158,700,332.94元（其中：基本支出37,966,811.13元，项目支出66,039,182.61元，经营支出54,694,339.20元）。 （四）结转结余及变动情况说明 2015年度，市商务局（粮食局）系统年末结转和结余51,066,746.98元，其中基本支出结转1,166,555.91元，项目支出结转49,900,191.07元，比2014年33,267,595.06元增加17799151.92元，增加53.50%。 2015年度，新疆国际会展中心结余分配4,905,736.19元，其中缴纳所得税1,256,725.08元，转入事业基金3,649,011.11元。 补充说明：经营收入、经营支出均为新疆国际会展中心2015年度自收自支的金额。 （五）三公经费、会议费和培训支出情况说明。 1、三公经费总体情况。 本年度三公经费支出合计410,935.56元，较上年646,587.00元减少235,651.44元，减少率36.45%，减少原因主要是公务用车购置及运行维护费的大幅度减少，当年公务接待任务轻，接待批次和人数有所减少。 2、因公出国（境）费用情况说明。 本年度无因公出国（境）费用，出国团组数及人数为0。 3、公务用车购置及运行维护费情况说明。 公务用车购置及运行维护费624,972.00元，主要为2015年度车辆保险、执法车辆用油、车辆维修费等，其中购置公务用车数量为0，年末单位公务用车保有量16辆，单位年末一般公务用车16辆，为执法检查用车辆。 4、公务接待费情况说明。 公务接待7批次46人次，共计支出公务接待费21,615.00元，主要为接待有关兄弟省市单位前来调研、学习考察等支出。 5、会议费情况说明。 本年度支出会议费1,483,799.32元，主要为参加2015年厦门国际投资贸易洽谈会费用、参加2015年天津投资贸易洽谈会款、参加第25届中国厨师节费用、参加第23届广州博览会费用、参加2015年中国餐饮博览会费用等政府预算的会议支出。 6、培训费情况说明。 本年度支出培训费26,534.00元，主要为参加公务员网络培训、档案培训、会计继续教育、人力资源和社会保障业务培训等各类业务培训。 （六）部门预算执行情况说明 2015年度，乌鲁木齐市商务局（粮食局）预算收入3040.99万元，其中，基本支出收入2766.1万元，项目收入274.89万元。本年度汇总实际支出158,700,332.94元（其中：基本支出37,966,811.13元，项目支出66,039,182.61元，经营支出54,694,339.20元），其中部分为追加预算形成的支出，预算执行情况较好，预算执行率100%。 （七）其他重要事项的情况说明 1、机关运行经费支出情况说明。 2015年度，乌鲁木齐市商务局（粮食局）汇总共计支出机关运行经费1,918,525.25元，主要为乌鲁木齐市商务局（粮食局）本级机关运行经费支出。 2、国有资产占用情况说明。2015年末，乌鲁木齐市商务局（粮食局）汇总一般公务用车26辆，其中乌鲁木齐市商务局（粮食局）本级9辆（含黄标车5辆），新疆国际会展中心5辆，乌鲁木齐市酒类专卖管理局1辆，为黄标车，已停驶封存；其他用车11辆，主要为新疆国际会展中心使用的其他车辆。 3、本年度预算绩效管理工作情况。本年度乌鲁木齐市商务局（粮食局）汇总年度任务完成及时，资金使用合理合规，预算绩效管理工作较好。 4、其他收入56,905.90元，为本年度银行存款利息收入。 5、本年度政府采购预算241.00万元，实际采购199.80万元，政府采购执行较好。 （八）专业名词解释 1、基本支出：是指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 2、项目支出：是指在基本支出之外为完成特定的行政工作任务或事业发展目标所发生的支出。 3、非税收入：是指除税收以外，由各级政府、国家机关、事业单位、代行政府职能的社会团体及其他组织依法利用政府权力、政府信誉、国家资源、国有资产或提供特定公共服务、准公共服务取得的财政性资金，是政府财政收入的重要组成部分。 4、“三公”经费：指各部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际差旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类接待（含外宾接待）费用。 5、机关运行经费：各部门的公用经费，包括办公印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料费及一般设备购置费、水电费、取暖费、物业管理费、公车运行维护费等以及其他费用。 附件：新疆乌鲁木齐市商务局（粮食局）汇总', '乌鲁木齐市商务局 ( 粮食局 ) 是市人民政府主管全市国内外贸易、对外经济技术合作和粮食工作的工作部门，承担乌鲁木齐市国内贸易管理、对外贸易管理、外商投资和对外经济技术合作、粮食流通管理等职责，协调市级商业中心、特色商业街和各类商品交易市场的规划与建设，研究拟定本市会展经济的规划和计划，承办市人民政府交办的其他事项，详情如下：', '、贯彻执行国家、自治区和我市有关内外贸易、外资、对外经济合作和粮食工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，编制我市商务粮食工作发展规划及中长期规划、年度计划，并组织实施和监督检查。', '、负责推进流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动流通标准化和连锁经营、商业特许经营、物流配送、电子商务等现代流通方式的发展。', '、会同有关部门拟订我市国内贸易发展规划；促进城乡市场发展，指导大宗产品批发市场规划和城市商业网点规划、商业体系建设工作；推进有关农村市场体系建设；组织实施农村现代流通网络工程；指导、推进供销合作事业发展。', '、承担协调整顿和规范市场经济秩序工作的责任；推动商务粮食领域信用建设；指导商业信用销售；按有关规定对特殊流通行业进行监督管理。', '、承担组织实施重要消费品市场调控和重要生产资料流通管理的责任；负责建立健全重要生活必需品市场供应监测预警体系和应急管理机制；监测分析市场运行、重要商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；按分工负责重要消费品储备管理和市场调控工作；按有关规定对畜禽屠宰、酒类流通、药品流通、成品油流通、食盐流通等行业进行监督管理；组织指导“三绿工程”，负责“菜篮子”产品流通行业管理的相关工作；负责权限内设置畜禽定点屠宰厂（场）的审定。', '、监督管理对外贸易工作，促进对外贸易发展；承担对全市对外贸易经营者备案登记工作；指导我市出口基地和出口品牌建设工作；推进我市进出口贸易标准化工作；管理加工贸易业务；组织实施与进出口公平贸易相关工作。', '、监督管理外商投资工作；指导全市外商投资促进工作；参与拟订我市外商投资中长期发展规划，并组织实施；负责权限内外商投资企业合同、章程的审批。', '、负责对外经济合作工作；指导对外经济合作促进工作；依法监督境外投资、对外工程承包、对外经济合作、对外劳务合作和援外项目工作。', '、会同有关部门制定促进服务贸易和服务外包发展的规划、政策并组织实施，推动服务外包平台建设。 10、指导和管理贸易投资促进工作；指导、协调我市举办的商务领域交易会、洽谈会、博览会、展览会和有关招商活动。 11、负责粮食流通行政管理和行业指导；指导政策性粮食购销和粮食产销合作；负责政策性粮食和军粮的供应与管理；负责粮食流通监督检查；负责储备粮管理工作；负责粮食收购许可及粮油仓储单位备案管理工作。 12、指导商务粮食领域信息化建设，协调信息资源的开发利用和共享，建立完善商务粮食信息公共服务体系；指导和推进电子商务应用与发展。 13、承办市委、市人民政府交办的其他事项。', '乌鲁木齐市商务局（粮食局）设14个内设机构：办公室、政治处、政策法规处、市场体系建设处、市场秩序处（市酒类专卖管理局、市畜禽屠宰加工冷藏行业管理办公室）、市场运行监测调节处、服务贸易和商贸服务处、对外贸易处、外国投资与对外经济合作处、粮食管理处、粮食储备调控处、财务审计处、纪检监察室、老干部工作处。', '市商务局（粮食局）下设3个直属事业单位（均参照公务员管理）：中国国际贸易促进委员会乌鲁木齐市委员会（中国国际商会乌鲁木齐商会）（副县级）、乌鲁木齐市商务（粮食）稽查支队（副县级）、乌鲁木齐市会展管理中心（中国-亚欧博览会乌鲁木齐市领导委员会办公室）（正科级）。', '市商务局（粮食局）汇总2015年度部门决算报表编制范围的单位共计6个，名单见下表：', '乌鲁木齐市商务局（粮食局）2015年部门决算公开内容包括乌鲁木齐市商务局（粮食局）本级决算和所属五个二级预算单位（中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市酒类专卖管理局、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心、新疆国际会展中心）在内的汇总决算。其中，乌鲁木齐市商务局 ( 粮食局 ) 本级、中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心纳入本级统一核算，新疆国际会展中心和乌鲁木齐市酒类专卖管理局为独立核算单位，', '公务用车购置及运行维护费624,972.00元，主要为2015年度车辆保险、执法车辆用油、车辆维修费等，其中购置公务用车数量为0，年末单位公务用车保有量16辆，单位年末一般公务用车16辆，为执法检查用车辆。', '公务接待7批次46人次，共计支出公务接待费21,615.00元，主要为接待有关兄弟省市单位前来调研、学习考察等支出。', '本年度支出会议费1,483,799.32元，主要为参加2015年厦门国际投资贸易洽谈会费用、参加2015年天津投资贸易洽谈会款、参加第25届中国厨师节费用、参加第23届广州博览会费用、参加2015年中国餐饮博览会费用等政府预算的会议支出。', '本年度支出培训费26,534.00元，主要为参加公务员网络培训、档案培训、会计继续教育、人力资源和社会保障业务培训等各类业务培训。', '年度，乌鲁木齐市商务局（粮食局）汇总共计支出机关运行经费1,918,525.25元，主要为乌鲁木齐市商务局（粮食局）本级机关运行经费支出。', '国有资产占用情况说明。2015年末，乌鲁木齐市商务局（粮食局）汇总一般公务用车26辆，其中乌鲁木齐市商务局（粮食局）本级9辆（含黄标车5辆），新疆国际会展中心5辆，乌鲁木齐市酒类专卖管理局1辆，为黄标车，已停驶封存；其他用车11辆，主要为新疆国际会展中心使用的其他车辆。', '本年度预算绩效管理工作情况。本年度乌鲁木齐市商务局（粮食局）汇总年度任务完成及时，资金使用合理合规，预算绩效管理工作较好。', '2、项目支出：是指在基本支出之外为完成特定的行政工作任务或事业发展目标所发生的支出。', '3、非税收入：是指除税收以外，由各级政府、国家机关、事业单位、代行政府职能的社会团体及其他组织依法利用政府权力、政府信誉、国家资源、国有资产或提供特定公共服务、准公共服务取得的财政性资金，是政府财政收入的重要组成部分。', '4、“三公”经费：指各部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际差旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类接待（含外宾接待）费用。', '5、机关运行经费：各部门的公用经费，包括办公印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料费及一般设备购置费、水电费、取暖费、物业管理费、公车运行维护费等以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>294</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>新疆党政代表团赴宁夏学习考察认真开展主题教育携手抢抓发展机遇以区域协作新成效谱写现代化建设新篇章</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/sy/zwxx/532400.htm</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['新疆党政代表团赴宁夏学习考察 认真开展主题教育携手抢抓发展机遇 以区域协作新成效谱写现代化建设新篇章 - 乌鲁木齐市人民政府', '新疆党政代表团赴宁夏学习考察 认真开展主题教育携手抢抓发展机遇 以区域协作新成效谱写现代化建设新篇章', '5月10日，新疆维吾尔自治区党政代表团到宁夏回族自治区学习考察。这是新疆维吾尔自治区党委书记马兴瑞，宁夏回族自治区党委书记梁言顺，主题教育中央第十五指导组组长王国生，宁夏回族自治区党委副书记、自治区主席张雨浦，新疆维吾尔自治区党委副书记、自治区主席艾尔肯·吐尼亚孜等在贺兰山东麓察看生态修复治理成效。 天山网-新疆日报记者崔志坚摄', '天山网-新疆日报讯（记者王兴瑞报道）新疆党政代表团5月10日来到宁夏回族自治区学习考察，认真开展主题教育，围绕全面贯彻党的二十大精神和习近平总书记视察新疆、宁夏重要讲话重要指示精神，瞄准两省区在现代化建设中的优势定位，就深化各领域合作、共促高质量发展进行交流对接，在银川市召开工作协作座谈会，签署战略合作框架协议。新疆维吾尔自治区党委书记马兴瑞，宁夏回族自治区党委书记梁言顺，主题教育中央第十五指导组组长王国生参加活动。', '5月10日，新疆维吾尔自治区及新疆生产建设兵团·宁夏回族自治区工作协作座谈会在银川召开。宁夏回族自治区党委副书记、自治区主席张雨浦，新疆维吾尔自治区党委副书记、自治区主席艾尔肯·吐尼亚孜代表两区签署《新疆维吾尔自治区人民政府 宁夏回族自治区人民政府战略合作框架协议》。天山网-新疆日报记者 崔志坚摄', '宁夏回族自治区党委副书记、自治区主席张雨浦，新疆维吾尔自治区党委副书记、自治区主席艾尔肯·吐尼亚孜，宁夏回族自治区政协主席陈雍，新疆维吾尔自治区党委副书记、兵团政委李邑飞，新疆维吾尔自治区党委副书记张春林参加有关活动。', '代表团一行来到宁东能源化工基地，走进宁东会客厅和国家能源集团宁夏煤业有限责任公司，学习了解宁夏能源资源开发和现代煤化工发展成效、经验做法；在沃福百瑞生物食品工程有限公司，实地考察特色枸杞产业发展；在贺兰山东麓察看生态修复治理成效，走进志辉源石酒庄了解葡萄酒产业发展、促进乡村振兴有关情况。', '座谈会上，马兴瑞代表新疆维吾尔自治区党委、政府和兵团，对宁夏长期以来给予新疆大力支持表示感谢。他说，宁夏和新疆同为西北民族自治区域，都承载着习近平总书记、党中央的关怀重托。宁夏深入贯彻总书记视察宁夏重要讲话重要指示精神，以建设黄河流域生态保护和高质量发展先行区为统揽，推动美丽新宁夏建设取得长足进步，对此表示衷心祝贺。新疆各族干部群众牢记总书记嘱托、感恩奋进，完整准确贯彻新时代党的治疆方略，扎实推进事关长治久安的根本性、基础性、长远性工作，正在中国式现代化道路上奋力建设美好新疆。两区历史渊源深厚、区位互联互通、经济互补共融，在全面建设社会主义现代化国家新征程上，共同迎来发展战略机遇期，加强合作正当其时、潜力巨大。希望双方抢抓机遇，聚焦高质量建设“一带一路”，深化能源资源合作，加强煤炭运输通道建设和现代煤化工、清洁能源等联动发展，围绕新材料、葡萄酒、中医药、特色农牧业等加强产业链供应链合作，促进开放平台联动发展，加强对口协作和对口援疆工作交流，共促乡村全面振兴，携手打造跨区域文旅平台和品牌，共同铸牢中华民族共同体意识、推进伊斯兰教中国化，开创区域高水平合作、高质量发展新局面，更好服务和融入新发展格局。', '梁言顺代表宁夏人民对新疆党政代表团来宁夏考察表示诚挚欢迎，对新疆和兵团长期以来给予宁夏的支持帮助表示衷心感谢。他说，新疆和宁夏同是中华民族大家庭的成员，备受总书记的关心厚爱，在长期交往交流交融中结下了深厚情分。新时代10年来，新疆和兵团牢记总书记的殷切嘱托，完整准确贯彻新时代党的治疆方略，推动美好新疆建设取得了重大成就。宁夏是祖国西部的一块宝地，总书记和党中央给予特殊关心关怀，我们深入学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，坚持“总书记怎么说、我们就怎么做”，坚定担当先行区建设使命任务，团结带领全区广大干部群众加快建设社会主义现代化美丽新宁夏。当前新疆和宁夏踏上了全面建设社会主义现代化的新征程，我们将认真学习新疆服务党和国家工作大局、促进民族团结、推动高质量发展、保障和改善民生等方面的好经验好做法，与新疆和兵团携起手来，共同深入学习贯彻总书记重要讲话指示批示精神，全力推动战略合作框架协议落地落实，主动融入国家发展战略，在构建现代化产业体系、服务“一带一路”建设、保障国家能源安全等领域深化合作、取得丰硕成果。', '王国生说，在全党深入开展主题教育的重要时刻，新疆党政代表团到宁夏考察学习，既是交流主题教育好经验、也是展示两地发展新成果。一个月来，指导组来到美丽大西北、战略大高地、开放新前沿，深入新疆和兵团、宁夏指导开展主题教育，置身于火热实践、融入到浓厚氛围、受教于干部群众，在深刻感悟习近平新时代中国特色社会主义思想的丰富实践中受益良多，感到只要坚持以习近平新时代中国特色社会主义思想为指导，关键时刻顶上去、过硬措施跟上去、盯住不放抓下去，就能把潜在优势、特色优势变成现实优势。新疆和兵团、宁夏按照党中央统一部署，将学习贯彻党的二十大精神与开展主题教育无缝对接、持续用力，在巩固中提高、转化中深入，自觉主动、一以贯之贯彻落实习近平新时代中国特色社会主义思想；各级领导干部用行动书写忠诚，靠实干赢得人心，主动深入群众、到困难地方推进工作，带动了一班人、激励了一批人、影响了一群人；抓发展的思维方式和工作方式、精神状态和精神面貌变化很大，产业布局和重点工作取得新的突破，地方发展新的态势可喜、新的增长点可期，主题教育的成果很好转化成了发展成效。', '会上，张雨浦介绍宁夏经济社会发展情况，艾尔肯·吐尼亚孜、李邑飞分别介绍自治区、兵团经济社会发展情况，签署《新疆维吾尔自治区人民政府宁夏回族自治区人民政府战略合作框架协议》《新疆生产建设兵团宁夏回族自治区人民政府战略合作框架协议》。', '宁夏领导雷东生、石岱、马汉成、陈春平、赵旭辉、白尚成、吴秀章、刘军、马宗保，自治区和兵团领导张柱、玉苏甫江·麦麦提、伊力扎提·艾合买提江、哈丹·卡宾、薛斌、凯赛尔·阿不都克热木、李震国、穆坦里甫·买提托合提、刘新建等参加有关活动。', '（刊用本网站稿件，务经书面授权。未经授权禁止转载、摘编、复制及建立镜像，违者将依法追究法律责任。）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>294</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>年度乌鲁木齐市商务局粮食局汇总部门决算公开说明</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-09-05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/fjbm/fswj/swj/430609.htm</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['2018年度乌鲁木齐市商务局（粮食局）汇总部门决算公开说明 - 乌鲁木齐市人民政府', '乌鲁木齐市商务局（粮食局）是市人民政府主管全市国内外贸易、对外经济技术合作、粮食、供销和会展工作的工作部门。', '根据《自治区党委办公厅自治区人民政府办公厅关于印发〈乌鲁木齐市人民政府机构改革方案〉的通知》（新党厅字〔', '号）、《中共乌鲁木齐市委员会乌鲁木齐市人民政府关于印发〈乌鲁木齐市、区（县）政府机构改革方案实施意见〉的通知》（乌党发〔', '号）和《关于印发乌鲁木齐市商务局（乌鲁木齐市粮食局）主要职责内设机构和人员编制规定的通知》（乌政办〔', '号）精神，设立乌鲁木齐市商务局、乌鲁木齐市粮食局，一个机构两块牌子。乌鲁木齐市商务局（乌鲁木齐市粮食局）〔以下简称市商务局（市粮食局）〕，为市人民政府工作部门。', '（一）贯彻执行国家、自治区和我市有关内外贸易、外资、对外经济合作和粮食工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，编制我市商务粮食工作发展规划及中长期规划、年度计划，并组织实施和监督检查。', '（二）负责推进流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动流通标准化和连锁经营、商业特许经营、物流配送、电子商务等现代流通方式的发展。', '（三）会同有关部门拟订我市国内贸易发展规划；促进城乡市场发展，指导大宗产品批发市场规划和城市商业网点规划、商业体系建设工作；推进有关农村市场体系建设；组织实施农村现代流通网络工程；指导、推进供销合作事业发展。', '（四）承担协调整顿和规范市场经济秩序工作的责任；推动商务粮食领域信用建设；指导商业信用销售；按有关规定对特殊流通行业进行监督管理。', '（五）承担组织实施重要消费品市场调控和重要生产资料流通管理的责任；负责建立健全重要生活必需品市场供应监测预警体系和应急管理机制；监测分析市场运行、重要商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；按分工负责重要消费品储备管理和市场调控工作；按有关规定对畜禽屠宰、酒类流通、药品流通、成品油流通、食盐流通等行业进行监督管理；组织指导“三绿工程”，负责“菜篮子”产品流通行业管理的相关工作；负责权限内设置畜禽定点屠宰厂（场）的审定。', '（六）监督管理对外贸易工作，促进对外贸易发展；承担对全市对外贸易经营者备案登记工作；指导我市出口基地和出口品牌建设工作；推进我市进出口贸易标准化工作；管理加工贸易业务；组织实施与进出口公平贸易相关工作。', '（七）监督管理外商投资工作；指导全市外商投资促进工作；参与拟订我市外商投资中长期发展规划，并组织实施；负责权限内外商投资企业合同、章程的审批。', '（八）负责对外经济合作工作；指导对外经济合作促进工作；依法监督境外投资、对外工程承包、对外经济合作、对外劳务合作和援外项目工作。', '（九）会同有关部门制定促进服务贸易和服务外包发展的规划、政策并组织实施，推动服务外包平台建设。', '（十）指导和管理贸易投资促进工作；指导、协调我市举办的商务领域交易会、洽谈会、博览会、展览会和有关招商活动。', '（十一）负责粮食流通行政管理和行业指导；指导政策性粮食购销和粮食产销合作；负责政策性粮食和军粮的供应与管理；负责粮食流通监督检查；负责储备粮管理工作；负责粮食收购许可及粮油仓储单位备案管理工作。', '（十二）指导商务粮食领域信息化建设，协调信息资源的开发利用和共享，建立完善商务粮食信息公共服务体系；指导和推进电子商务应用与发展。', '从决算单位构成看，乌鲁木齐市商务局（粮食局）汇总部门决算包括：乌鲁木齐市商务局（粮食局）本级决算、新疆国际会展中心决算等。', '，增加的主要原因是：一是社保基数调整增加的支出；二是新增项目的支出。其中：基本支出', '。增加的主要原因是：一是社保基数调整增加的支出；二是新增项目的支出。其中：按功能分类科目（按类级科目公开），一般公共服务支出', '。增减变化的主要原因是：无政府性基金预算。其中：按功能分类科目（按类级科目公开），一般公共服务支出', '万元。主要用于车辆保险、燃油、维修费用等。市商务局（粮食局）一般公共财政拨款安排的公务用车购置量', '万元，主要是各地商务部门来乌市考察学习、交流工作等用餐。市商务局（粮食局）国内公务接待', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（项）机关事业单位基本养老保险缴费支出：指机关事业单位实施养老保险制度由单位缴纳的基本养老保险费支出。', '（项）机关事业单位职业年金缴费支出：指机关事业单位实施养老保险制度有单位实际缴纳的职业年金支出。', '（项）中小企业发展专项：指用于支持中小企业专业化发展、与大企业协作配套等方面的支出。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>294</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>自治区党政代表团到江苏学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/sy/zwxx/533792.htm</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['天山网-新疆日报讯（记者李杨报道）5月28日至29日，按照自治区党委安排，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜率自治区党政代表团到江苏学习考察。江苏省委书记、省人大常委会主任信长星参加活动。', '信长星代表江苏省委、省政府对新疆党政代表团的到来表示欢迎，对新疆长期以来给予江苏发展的大力支持表示感谢。他说，新时代十年，自治区党委、政府带领各族人民团结奋斗，天山南北发生历史性变化，取得令人赞叹的巨大成就。今天的新疆，是充满活力、蓬勃发展的好地方，民族团结、亲如一家的好地方，文化繁荣、文明进步的好地方，安居乐业、祥和从容的好地方，雄奇壮美、千姿百态的好地方，这充分印证了新时代党的治疆方略非常英明、完全正确。迈进新征程，我们将把对口援疆作为必须扛起的重大责任、必须干好的分内之事，持续推动援疆工作走深走实；着眼共建“一带一路”，协同推进新亚欧陆海联运通道建设，助力新疆打造开放高地；聚焦高质量发展这一强国建设的首要任务，全面加强双向协作、深度交融，将两地的区位优势、资源优势变为产业优势、发展优势，在新时代新征程上谱写苏新合作共赢新篇章。', '艾尔肯·吐尼亚孜对江苏省长期以来给予新疆的大力支持和无私援助表示诚挚感谢。他说，党的十八大以来，以习近平同志为核心的党中央高度重视江苏工作，江苏高质量发展和现代化建设迈出坚实步伐，为全国经济社会发展大局作出重要贡献。江苏省委、省政府始终把对口援疆作为一项重要政治责任，投入真金白银、倾注真情实意、坚决真抓实干，创造了一批好经验、好做法，走出了一条体现江苏特色、符合受援地实际的援疆之路，有力促进了受援地社会稳定、经济发展、民生改善。今年是全面贯彻落实党的二十大精神开局之年，苏新双方合作平台宽广、前景美好。结合深入开展主题教育，希望江苏与新疆在共建“一带一路”上继续加强合作，助力新疆全力打造内陆开放和沿边开放的高地；发挥江苏优势，在科技创新和先进制造业发展上给予新疆更多支持；推动两地在文化和旅游方面深化合作，架起厚植情谊、增进文化交流的桥梁。', '在苏期间，艾尔肯·吐尼亚孜等看望慰问了江苏省援疆干部人才代表。自治区党政代表团前往江苏省科研机构、科技企业、工业园区等参观调研。', '江苏省领导韩立明、曹路宝、刘建洋、储永宏、马欣、胡广杰，自治区及兵团领导陈伟俊、王明山、刘苏社、哈增友、杨秀理等参加活动。', '（刊用本网站稿件，务经书面授权。未经授权禁止转载、摘编、复制及建立镜像，违者将依法追究法律责任。）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>294</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>年度乌鲁木齐市商务局粮食局本级部门决算公开说明</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-09-05</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/fjbm/fswj/swj/430592.htm</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['2018 年度乌鲁木齐市商务局（粮食局）本级 部门决算公开说明 - 乌鲁木齐市人民政府', '乌鲁木齐市商务局（粮食局）是市人民政府主管全市国内外贸易、对外经济技术合作、粮食、供销和会展工作的工作部门。', '根据《自治区党委办公厅自治区人民政府办公厅关于印发〈乌鲁木齐市人民政府机构改革方案〉的通知》（新党厅字〔', '号）、《中共乌鲁木齐市委员会乌鲁木齐市人民政府关于印发〈乌鲁木齐市、区（县）政府机构改革方案实施意见〉的通知》（乌党发〔', '号）和《关于印发乌鲁木齐市商务局（乌鲁木齐市粮食局）主要职责内设机构和人员编制规定的通知》（乌政办〔', '号）精神，设立乌鲁木齐市商务局、乌鲁木齐市粮食局，一个机构两块牌子。乌鲁木齐市商务局（乌鲁木齐市粮食局）〔以下简称市商务局（市粮食局）〕，为市人民政府工作部门。', '（一）贯彻执行国家、自治区和我市有关内外贸易、外资、对外经济合作和粮食工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，编制我市商务粮食工作发展规划及中长期规划、年度计划，并组织实施和监督检查。', '（二）负责推进流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动流通标准化和连锁经营、商业特许经营、物流配送、电子商务等现代流通方式的发展。', '（三）会同有关部门拟订我市国内贸易发展规划；促进城乡市场发展，指导大宗产品批发市场规划和城市商业网点规划、商业体系建设工作；推进有关农村市场体系建设；组织实施农村现代流通网络工程；指导、推进供销合作事业发展。', '（四）承担协调整顿和规范市场经济秩序工作的责任；推动商务粮食领域信用建设；指导商业信用销售；按有关规定对特殊流通行业进行监督管理。', '（五）承担组织实施重要消费品市场调控和重要生产资料流通管理的责任；负责建立健全重要生活必需品市场供应监测预警体系和应急管理机制；监测分析市场运行、重要商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；按分工负责重要消费品储备管理和市场调控工作；按有关规定对畜禽屠宰、酒类流通、药品流通、成品油流通、食盐流通等行业进行监督管理；组织指导“三绿工程”，负责“菜篮子”产品流通行业管理的相关工作；负责权限内设置畜禽定点屠宰厂（场）的审定。', '（六）监督管理对外贸易工作，促进对外贸易发展；承担对全市对外贸易经营者备案登记工作；指导我市出口基地和出口品牌建设工作；推进我市进出口贸易标准化工作；管理加工贸易业务；组织实施与进出口公平贸易相关工作。', '（七）监督管理外商投资工作；指导全市外商投资促进工作；参与拟订我市外商投资中长期发展规划，并组织实施；负责权限内外商投资企业合同、章程的审批。', '（八）负责对外经济合作工作；指导对外经济合作促进工作；依法监督境外投资、对外工程承包、对外经济合作、对外劳务合作和援外项目工作。', '（九）会同有关部门制定促进服务贸易和服务外包发展的规划、政策并组织实施，推动服务外包平台建设。', '（十）指导和管理贸易投资促进工作；指导、协调我市举办的商务领域交易会、洽谈会、博览会、展览会和有关招商活动。', '（十一）负责粮食流通行政管理和行业指导；指导政策性粮食购销和粮食产销合作；负责政策性粮食和军粮的供应与管理；负责粮食流通监督检查；负责储备粮管理工作；负责粮食收购许可及粮油仓储单位备案管理工作。', '（十二）指导商务粮食领域信息化建设，协调信息资源的开发利用和共享，建立完善商务粮食信息公共服务体系；指导和推进电子商务应用与发展。', '从决算单位构成看，乌鲁木齐市商务局（粮食局）本级部门决算包括：乌鲁木齐市商务局（粮食局）本级决算。', '。增加的主要原因是：社保基数调整增加的支出。其中：按功能分类科目（按类级科目公开），一般公共服务支出', '。增减变化的主要原因是：无政府性基金预算。其中：按功能分类科目（按类级科目公开），一般公共服务支出', '万元。主要用于车辆保险、燃油、维修费用等。市商务局（粮食局）一般公共财政拨款安排的公务用车购置量', '万元，主要是各地商务部门来乌市考察学习、交流工作等用餐。市商务局（粮食局）国内公务接待', '执法稽查专项经费项目绩效自评综述：根据年初设定的绩效目标，执法稽查专项经费项目绩效自评得分为', '发现的问题及原因：在完成综合行政执法工作任务过程中，经费紧张，车辆配置不足，经常性在开展工作中出现车辆使用冲突时，无法全面开展各项工作任务。', '下一步改进措施：继续按照商务部、国家粮食局开展粮食、汽车销售、成品油、大型商超、餐饮业、洗染业、家庭服务业等', '对我市粮食质量、成品油质量检验检测，确保我市粮食质量安全和成品油质量安全；每月对劳务派遣人员支付工资，每年对库房租赁进行费用支出，每月对车辆运行及维护进行支出。', '规范粮食、汽车销售、成品油、大型商超、餐饮业、洗染业、家庭服务业等27个行业的经营市场经营秩序，确保供应商、零售商公平交易，减少人力、财力资源浪费。', '确保我市成品油质量，杜绝以次充好、以假充真成品油流入市场，从而促进能源节约和环境保护', '检查、指导洗染业从业者开设洗染店、水洗厂在卫生、环保、节水、节能等方面符合国家相关法律规定和标准要求。', '成品油市场监管工作经费项目绩效自评综述：根据年初设定的绩效目标，成品油市场监管工作经费项目绩效自评得分为', '下一步改进措施：继续按照《成品油市场管理办法》和相关规定，加强成品油流通监督管理，加强安全、环保等宣传教育工作，确保我市油品供应正常有序。', '年开展了3次加油站安全、环保、保供等相关培训，全市加油站供应正常，油品质量符合标准。', '在重要节点和重要会议期间，开展检查督查工作，积极协调各相关部门，确保全市油品供应正常有序。2018年共协调加油站供油问题3次。', '训练专用经费项目绩效自评综述：根据年初设定的绩效目标，训练专用经费项目绩效自评得分为', '。主要产出和效果：一是强化思想教育，加大训练力度，加强人员的培养，为社会提供大批骨干，促进和谐发展；二是严格登统工作，留根存底，建立经济民主委员会，加强监督和管控。', '下一步改进措施：持续强化思想发动，以点带面，带动更多人遵章守纪，发挥战斗队、工作队、宣传队作用，为首府的长治久安做贡献。', '单用途预付卡管理工作经费项目绩效自评综述：根据年初设定的绩效目标，单用途预付卡管理工作经费项目绩效自评得分为', '。主要产出和效果：一是通过宣传、培训，企业对《单用途商业预付卡管理办法（试行）》的知晓率有效提升，规模发卡企业主动到商务部门办理备案登记；二是通过签署购卡协议、阅读企业发卡章程，明确了双方的权利和义务，购卡人对发卡企业的满意度有效提升。', '发现的问题及原因：通过培训和到企业座谈、调研，发现部分发卡企业存在预付卡业务管理人员变动频繁、对法律法规知识掌握不深、不透的问题仍然存在，需要进一步加强培训和宣传力度，通过日常监管、检查提高企业对单用途商业预付卡发卡业务的重视程度，规范、引导企业合法经、按时向商务部门报送相关信息。', '下一步改进措施：继续开展对发卡企业、各区（县）商务部门的培训工作，提升基层执法和监管能力，通过积极有效的监督管理，引导规模发卡企业合法经营，切实保障购卡人的权利，发挥单用途商业预付卡减少现金使用、便利公众支付、刺激消费的积极作用。', '引导、监督单用途商业预付卡规模发卡企业主动到商务部门备案登记、合法发行单用途商业预付卡。', '我市单用途商业预付卡规模发卡企业备案管理有序，企业主动申报，预付卡和存管资金合规运行。', '完成1次。7月份举办了一次乌鲁木齐市商务（粮食）系统单用途商业预付卡业务培训，培训对象包括机关各处室、市商务（粮食）稽查支队、各区（县)商务局（粮食局）工作人员、发卡企业和拟发卡企业，共40余人。', '印制宣传资料2000份。含商务部《单用途商业预付卡管理办法（试行）》、单用途商业预付卡行业分类表、单用途卡发卡企业备案表、单用途商业预付卡预收资金存管协议（范本）等备案填写的资料表格和宣传材料。', '。通过宣传、培训，企业对《单用途商业预付卡管理办法（试行）》的知晓率有效提升，规模发卡企业主动到商务部门办理备案登记。', '。通过签署购卡协议、阅读企业发卡章程，购卡人对发卡企业的满意度有效提升，实现透明消费。', '蔬菜牛羊肉直销点工作经费项目绩效自评综述：根据年初设定的绩效目标，蔬菜牛羊肉直销点工作经费项目绩效自评得分为', '。主要产出和效果：一是通过会议，市直销办及时掌握各区（县）直销点工作动态，讲评安排阶段重点工作，公布直销点月考核成绩，有效激发各区（县）工作积极性；二是引导肉菜经营企业不断提升经营管理水平，满足市民需求，提高经济效益；三是直销点是我市重要的民生工程，在保障供应、平抑物价、惠及民生及完善城市农副产品网点功能等方面发挥了不可替代的重要作用，已日渐成为我市蔬菜肉食品供应的主渠道之一，受到国家商务部、自治区党委、自治区人民政府的充分肯定，更被广大市民视为政府的贴心工程。', '发现的问题及原因：建议加大政府资金投入和政策扶持，让直销点这个民生工程在便民利民惠民方面发挥更大的作用。', '下一步改进措施：一是进一步加强直销点调改建工作；二是进一步加强直销点安全隐患改造工作；三是进一步加强直销点提档升级工作。', '牢牢把握保障供应、稳定物价，便民、惠民、为民的总目标，建立健全直销点规范化、标准化、信息化管理机制，提高服务能力、提升服务质量、增强运营效率，达到形象统一化、设施标准化、环境整洁化、布局合理化、功能完善化的规范标准。', '年，我市直销点紧紧围绕保障供应、稳定物价，便民利民惠民的总目标，进一步提档升级和提升管理水平，检查安全情况，提出对325采用苯板彩钢板房直销点分步骤按计划进行消防改造。', '肉菜流通追溯系统运行维护费项目绩效自评综述：根据年初设定的绩效目标，肉菜流通追溯系统运行维护费项目绩效自评得分为', '。主要产出和效果：一是逐步分批完善肉菜追溯流通追溯保障程度，提高居民对肉菜追溯流通追溯体系的认知和认可；二是通过对现场肉菜追溯运行情况的检查和对现场追溯操作人员的培训，进一步提高系统操作人员数据上传的有效性、完整性。', '发现的问题及原因：目前在完成肉菜追溯体系系统运行维护过程中，经费紧张，人力、物资等运营成本增加，对节点所在企业造成一定的负担。', '提升肉菜各环节数据的数据量及数据链条合成率，完善各节点肉菜追溯环节的数据及时上报，提升上级主管部门满意度', '储备管理工作经费项目绩效自评综述：根据年初设定的绩效目标，储备管理工作经费项目绩效自评得分为', '。主要产出和效果：肉菜储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，打击了蔬菜商户囤积居奇、攫取高额利润的投机行为，加大了市场供应量，满足了中低收入人群肉菜需求，在抑制节日期间和恶劣天气下肉菜惯性上涨方面发挥了积极的作用。', '发现的问题及原因：我市将重点帮扶和田地区脱贫，其中鼓励和田地区规模化种植蔬菜，并做为我市储备菜的主要供应渠道，鉴于当地没有成熟的流通链条，经纪人缺乏，农产品检测能力不足，为完成扶贫任务，并确保我市的储备肉菜安全，需要我局牵头组织相关部门及企业多次赴和田督导协调，建议给予增加工作经费。', '年度收储企业的入库及投放情况进行检查，并按照市扶贫办要求，牵头组织相关部门及储备企业赴和田，考察当地蔬菜肉类生产情况，努力将和田当地蔬菜做为我市储备菜的主要供应渠道。', '1、组织开展疆内外调研，为制定储备投放方案的数量、价格奠定基础，增加赴和田调研考察次数，将扶贫与肉菜销售相结合。2、制作储备投放宣传品，以便于企业和市民更加了解政府惠民便民利民政策。3、组织开展培训和日常监督检查，加强企业食品安全和安全生产工作意识，确保肉菜人储得住，调得出，用得上。', '年，我市收储肉3300吨，蔬菜5万吨（毛重），通过调研考察，8月我市完成储备企业的入选招标工作及储备方案，储备菜投放自2018年12月20日-2019年3月10日陆续投放，储备肉分别于古尔邦节、国庆中秋、元旦、春节前夕进行投放。', '肉菜储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，打击了蔬菜商户囤积居奇、攫取高额利润的投机行为，加大了市场供应量，满足了中低收入人群肉菜需求，在抑制节日期间和恶劣天气下肉菜惯性上涨方面发挥了积极的作用。', '指标1：2018年，我市计划收储肉菜3300吨，蔬菜5万吨（毛重），通过调研考察，8月我市完成储备企业的入选招标工作及储备方案，古尔邦节、中秋国庆节、元旦、春节4次储备肉投放，当年12月20日至次年3月10日储备菜投放。', '由于储备肉菜质量优、价格低，每逢过节到直销点买储备肉，冬天早上排队去直销点买储备菜成了很多中老年人的消费习惯，为满足市民特别是中低收入群体肉菜基本生活需求，在保障、稳价、惠民方面发挥了巨大作用，取得了良好的社会效益。', '工作队专项经费项目绩效自评综述：根据年初设定的绩效目标，工作队专项经费项目绩效自评得分为', '。主要产出和效果：一是为群众解决困难、办实事好事，让群众实实在在的利益得到满足，生活质量得以提高；二是开展各类参观、观影、联谊活动，组织慰问等，让各族群众切实感受到党和政府的关爱和温暖，进一步提升幸福感。', '下一步改进措施：根据工作计划实施各项为民办实事项目，加强走访和联系，进一步了解民情，实施更多更有意义的项目。', '丝绸之路商贸物流规划前期费用项目绩效自评综述：根据年初设定的绩效目标，丝绸之路商贸物流规划前期费用项目绩效自评得分为', '。主要产出和效果：《规划》主要依据国家、自治区及我市有关丝绸之路经济带建设战略规划、商贸及物流业规划、全国流通节点城市布局规划、以及我市第十三个五年规划纲要及城市总体规划等一系列重要指导文件，还与自治区商贸物流中心规划进行了衔接，规划的基本定位与重点项目得到了自治区相关部门的肯定和认同。', '下一步改进措施：一是加大资金政策支持力度，加大外引内配力度，培育有规模的商贸物流市场主体。二是突出经开区国际路港区在商贸物流产业发展的引领作用。', '乌鲁木齐市外经贸发展扶持资金 项目绩效自评综述：根据年初设定的绩效目标，乌鲁木齐市外经贸发展扶持资金项目绩效自评得分为', '。主要产出和效果：一是资金专用于促进开放型经济体系建设，推动外贸转型升级，全面推进丝绸之路经济带核心区建设，适应和引领经济新常态，全面提高我市对外开放水平，引导外贸企业创新驱动发展，培育外贸企业以技术、品牌、质量、服务为核心的国际竞争力新优势；二是进一步优化国际市场布局、国内区域布局、外贸商品结构、外贸经营主体和贸易方式，提高外贸发展的质量和效益，实现乌鲁木齐市对外贸易协调可持续发展。', '实现年进出口额增长13%。出口转型基地建设取得成效，地产品出口增长3%以上，扩大出口信用保险范围，对中小企业予以更多支持。', '第十二届中国（山东）国际糖酒食品交易会项目绩效自评综述：根据年初设定的绩效目标，第十二届中国（山东）国际糖酒食品交易会项目绩效自评得分为', '余份，吸引参观客商千余人次，企业展示的各种酒水、饮料等新疆特色产品，受到当地群众追捧，参展企业带去的新疆特色产品被抢购一空。展位前咨询洽谈的人员不断，有多家企业欲与我市参展企业开展多种形式的合作交流。', '发现的问题及原因：在招商投资方面，建议加大招商项目的包装和推介，结合我市的资源优势，推出相应的大项目，好项目。', '第四届武汉电子商务博览会经费项目绩效自评综述：根据年初设定的绩效目标，第四届武汉电子商务博览会经费项目绩效自评得分为', '。主要产出和效果：一是发放宣传手册，推介企业产品，收集参会资料，展开意向性洽谈，收到很好效果，电博会期间，我市千余份宣传手册、投资指南等宣传资料被索取一空；二是同来自全国的商务系统同行们洽谈、沟通，一方面向他们介绍了我市电商发展情况和发展方向、举措，一方面学习了各地区发展电商的先进经验、做法。', '下一步改进措施：一是分利用电博会庞大丰富的客商资源，提升我市电商工作水平；二是认真开展本届电博会签约项目的履约工作。', '第二十一届重庆投资采购会项目绩效自评综述：根据年初设定的绩效目标，第二十一届重庆投资采购会项目绩效自评得分为', '余份，吸引参观客商千余人次；二是有多家企业欲与我市参展企业开展多种形式的合作交流，我市签约项目', '下一步改进措施：充分利用好展会平台，广泛宣传我市良好的区位优势，资源优势和特色产品优势，进一步加大投资促进活动，扩大承接产业招商引资实效。', '厦门国际投资贸易洽谈会经费项目绩效自评综述：根据年初设定的绩效目标，厦门国际投资贸易洽谈会经费项目绩效自评得分为', '。主要产出和效果：一是成功举办了乌鲁木齐国际陆港区新欧班列集货招商推介会，项目签约及各项活动均取得圆满成功；二是学习了先进“放管服”经验，进一步优化营商环境。发现的问题及原因：乌鲁木齐市作为一带一路重要节点城市不仅要扩大对外开放，更要加强对内地开放，加强与内地相关部门的交流学习，与内地其他城市建立更紧密合作关系。', '下一步改进措施：一是认真做好签约项目履约工作；二是做好在谈项目的跟踪服务工作，扩大投洽会参会成果。', '一是围绕投洽会融入“一带一路”、促进双向投资开展展洽、招商推介活动。二是借鉴学习厦门先进经验，并建立招商引资伙伴工作关系。三是举办乌鲁木齐国际陆港区新欧班列集货招商推介会。', '会展业发展扶持资金项目绩效自评综述：根据年初设定的绩效目标，会展业发展扶持资金项目绩效自评得分为', '。主要产出和效果：一是为新疆的食品和餐饮产业发展带来了新思路、新观点、新视野，有效促进行业和企业的对话与合作；二是助推新疆与丝绸之路经济带沿线城市的经贸合作和人文交流，促进食品和餐饮产业结构调整和创新驱动，为实现丝绸之路经济带沿线国家与城市共享新机遇、共谋新发展搭建平台。', '下一步改进措施按照《乌鲁木齐市会展业发展财政扶持资金管理暂行办法》的要求，继续做好会展业发展财政扶持资金的申报、审核和拨付工作，保障会展业各项工作的正常开展，进一步提升会展业对经济的拉动作用和社会影响力。', '累计实现产销对接近1800次，通过专场推介及精准产销对接会、各类配套活动，达成意向签约金额3亿元。', '关注参展商和采购商的需求，以促进新疆食品和餐饮产业发展为立足点，全力打造分享专业知识和成功秘诀的绝佳平台。', '发现的问题及原因：在城市国际化水平、服务质量、文明程度等方面还需要不断深化和继续提升。', '下一步改进措施：将以第六届亚欧博览会的成功举办为新的起点，进一步总结经验，发扬成绩，乘势而上，完善工作机制，提早谋划筹备，努力把下一届亚欧博览会我市承担的各项工作做的更好、更加出色。', '分别设置饮水点14处，设置自动售货机5处、店铺售卖5处。在12号展厅设置4000平方米餐饮区，提供10余个品类的餐饮服务，接待就餐人数5.36万人次。', '乌鲁木齐市特色餐饮业发展专项资金项目绩效自评综述：根据年初设定的绩效目标，乌鲁木齐市特色餐饮业发展专项资金项目绩效自评得分为', '。主要产出和效果：一是鼓励特色餐饮企业做大做强，引导全社会加大投资力度；二是鼓励特色主食加工工程建设，开展主食加工配送服务，打造一批市级特色美食街区（城）。', '下一步改进措施：坚持公开、公正、公平的原则，确保专项资金的规范、安全和高效使用，实现我市特色餐饮业健康可持续发展。', '安全生产奖励金项目绩效自评综述：根据年初设定的绩效目标，安全生产奖励金项目绩效自评得分为', '。主要产出和效果：我局建立完善“商务粮食领域安全生产考核办法”“商务粮食领域安全生产一票否决制度”，将安全生产工作绩效与履职评定、职务晋升、奖励惩处相挂钩，使安全监管工作逐步走向制度化和规范化，有效遏制各类安全事故的发生。', '发现的问题及原因：一是安全生产基础工作还比较薄弱，行业安全监管水平还需提高，监管力度还需加大，安全生产长效机制还需要进一步建立和完善；二是安全生产监管职责需进一步明确，应避免多头安排、标准不一致现象。加强与安全生产责任单位联动、相互信息交流沟通机制还需要进一步完善强化。', '下一步改进措施：继续做好行业领域安全生产工作，加大检查监管力度，坚决杜绝重特大事故，有效遏制较大事故，最大限度地减少一般事故，将各类事故控制在市政府下达的控制指标数之内。职责范围内，无死亡和重大工伤事故，不发生火灾事故，不发生交通死亡事故。', '按照市委、市政府的决策部署，紧紧围绕社会稳定和长治久安总目标，以安全生产领域改革发展为主线，以有效防范和坚决遏制重特大事故为重点，明晰职责，严格监管，强化预防，深化治理，全面提升安全生产水平，全力遏制各类生产安全事故，推动商务粮食领域安全生产形势持续稳定好转。', '紧紧围绕社会稳定和长治久安总目标，以安全生产领域改革发展为主线，以有效防范和坚决遏制重特大事故为重点，明晰职责，严格监管，强化预防，深化治理，全面提升安全生产水平，', '全年我局系统无伤亡事故、无火灾事故、无交通事故，事故控制指标总体为零，无被通报、约谈情况，无重大隐患挂牌督办单位，全市商务粮食领域安全形势持续稳定。我局再次被评为“乌鲁木齐市2018年安全生产工作先进单位”。局办公室荣获“乌鲁木齐市2018年安全生产工作先进集体”。', '服务贸易发展专项资金（市级配套）项目绩效自评综述：根据年初设定的绩效目标，服务贸易发展专项资金（市级配套）项目绩效自评得分为', '。主要产出和效果：一是发挥了专项资金“四两拨千斤”的引领带动作用，激发了企业大力拓展服务贸易业务的积极性；二是中小微企业给予资金补贴，改善了企业业务发展中的资金需求，起到了雪中送炭的效果；三是通过重点支持服务贸易中新兴服务贸易的发展，不断提升了我市服务外包业务水平。', '发现的问题及原因：一是资金拨付后，对企业的绩效评价工作是个薄弱环节，缺乏统一的、科学完备的资金使用绩效评价办法或体系，建议研究出台统一的企业资金使用绩效评价或评估办法，发挥好资金的引领带动作用，不断提高资金的使用效果；二是从', '、加强人才队伍培训，不断提高企业业务水平；5、鼓励企业积极走出去，努力开拓国际市场。', '市级储备菜利费补贴项目绩效自评综述：根据年初设定的绩效目标，市级储备菜利费补贴项目绩效自评得分为', '。主要产出和效果：蔬菜储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，打击了蔬菜商户囤积居奇、攫取高额利润的投机行为，加大了市场供应量，满足了中低收入人群蔬菜需求，在抑制节日期间和恶劣天气下蔬菜惯性上涨方面发挥了积极的作用。', '年及以后三年，我市将重点帮扶和田地区脱贫，其中鼓励和田地区规模化种植蔬菜，并做为我市储备菜的主要供应渠道，鉴于当地没有成熟的流通链条，经纪人缺乏，农产品检测能力不足，为完成扶贫任务，并确保我市的储备肉菜安全，需要我局牵头组织相关部门及企业多次赴和田督导协调，建议增加工作经费。', '年度收储企业的入库及投放情况进行检查，并按照市扶贫办要求，牵头组织相关部门及储备企业赴和田，考察当地蔬菜生产情况，努力将和田当地蔬菜做为我市储备菜的主要供应渠道。', '当年12月20日至次年3月10日，我局在全市社区蔬菜副食品直销点启动储备菜投放工作，投放品种为白菜、土豆、冬瓜、胡萝卜、黄萝卜、恰玛古、冬瓜、南瓜8个品种，满足市场需求，平抑冬季菜品过高上涨态势。', '指标1：肉菜储备工作由市商务局牵头，市发改委、市财政局、市农牧局共同协作配合，根据当期肉菜市场价格、供应情况和肉菜经营企业实际，制订收储、投放、补贴等工作方案，报市政府批准后实施。根据新疆气候特点，肉品收储从8月中旬开始，9月中旬结束，蔬菜从9月中旬开始，11月底收储结束。', '指标1：满足了中低收入人群蔬菜需求，在抑制节日期间和恶劣天气下蔬菜惯性上涨方面发挥了积极的作用。', '指标1：蔬菜储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，打击了蔬菜商户囤积居奇、攫取高额利润的投机行为，加大了市场供应量，', '满足市民特别是中低收入群体蔬菜基本生活需求，在保障、稳价、惠民方面发挥了巨大作用，取得了良好的社会效益。', '储备肉利费补贴项目绩效自评综述：根据年初设定的绩效目标，储备肉利费补贴项目绩效自评得分为', '。主要产出和效果：肉品储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，加大了市场供应量，满足了中低收入人群肉品需求，在抑制节日期间和恶劣天气下肉品惯性上涨方面发挥了积极的作用。', '年度收储企业的入库及投放情况进行检查，并按照市扶贫办要求，牵头组织相关部门及储备企业赴和田，考察当地肉类生产情况。', '每年，我局在春节、元旦、古尔邦节、中秋国庆启动四次储备肉投放工作，以低于市场5-10元的价格投放市场，投放品种涉及猪、牛、羊、鸡。有效的满足市场需求，平抑节日肉品过高上涨态势。', '指标1：肉菜储备工作由市商务局牵头，市发改委、市财政局、市农牧局共同协作配合，根据当期肉菜市场价格、供应情况和肉菜经营企业实际，制订收储、投放、补贴等工作方案，报市政府批准后实施。根据新疆气候特点，肉品收储从8月中旬开始，9月中旬结束。', '每年储备肉在4个节日前以低于市场5-10元的价格投放市场，投放品种涉及猪、牛、羊、鸡，有效的满足市场需求。', '肉菜储备除保障应急工作外，在我市节日期间、风雪严寒季节以低于市场价投放市场，加大了市场供应量，满足了中低收入人群肉品需求，在抑制节日期间和恶劣天气下肉品惯性上涨方面发挥了积极的作用。', '指标1：满足了中低收入人群肉品需求，在抑制节日期间和恶劣天气下肉品惯性上涨方面发挥了积极的作用', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（项）机关事业单位基本养老保险缴费支出：指机关事业单位实施养老保险制度由单位缴纳的基本养老保险费支出。', '（项）机关事业单位职业年金缴费支出：指机关事业单位实施养老保险制度有单位实际缴纳的职业年金支出。', '（项）中小企业发展专项：指用于支持中小企业专业化发展、与大企业协作配套等方面的支出。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>294</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>年度乌鲁木齐市关心下一代工作委员会办公室决算公开说明</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2018-09-05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/labgzj/401873.htm</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['2017年度乌鲁木齐市关心下一代工作委员会办公室决算公开说明 - 乌鲁木齐市人民政府', '1）树牢总目标，扎实深入推进正能量活动的开展，落实离休老干部的政治生活待遇，组织离休老干部开展各项活动，并提供相关服务。', '2）服务总目标，创新实践，突出思想政治引领，着力加强离退休干部思想政治建设和党组织建设，始终聚焦总目标，充分发挥老同志独特优势和作用，创新提升老干部工作服务水平。', '从决算单位构成看，乌鲁木齐市关心下一代工作委员会办公室决算包括：乌鲁木齐市关心下一代工作委员会办公室。', '2017年度财政拨款收入80.38万元，与上年相比，增加9万元，增长12.61%。增减变化的主要原因是：主要原因是我单位在关心下一代业务工作中投入较大，发挥专家报告团、“五老人员””优势，用心做好关心下一代工作。财政拨款支出80.52万元，与上年相比，增加8.93万元，增长12.47%。其中：基本支出66.92万元，项目支出13.60万元。增减变化的主要原因是：主要原因是我单位在关心下一代业务工作中投入较大，发挥专家报告团、“五老人员””优势，用心做好关心下一代工作。财政拨款结转结余0.016万元，与上年相比，增加0.016万元，增长100%。增减变化的主要原因是：严格控制经费支出。', '与预算相比情况。2017年度财政拨款收入比预算数多了8.64万元，主要原因是是我单位在关心下一代业务工作中投入较大，发挥专家报告团、“五老人员””优势，用心做好关心下一代工作。', '2017年度政府性基金预算财政拨款收入0万元，与上年相比，增加（减少）0万元，增长（降低）0%。增减变化的主要原因是：无。政府性基金预算财政拨款支出0万元，与上年相比，增加（减少）0万元，增长（降低）0%。增减变化的主要原因是：无。', '因公出国（境）费支出0万元。0单位全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。开支内容包括：无。', '公务用车购置及运行维护费2.14万元，其中，公务用车购置0万元，公务用车运行维护费2.14万元。主要用于办公、业务活动、老干部活动、看望老干部遗孀等。2017年，单位一般公共财政拨款安排的公务用车0辆，保有量为1辆。', '市委老干部局部门单位政府采购计划0.25万元，其中：政府采购货物支出0.25万元、政府采购工程支出0万元、政府采购服务支出0万元；实际采购0.25万元，其中：政府采购货物支出0.25万元、政府采购工程支出0万元、政府采购服务支出0万元。其他有关说明内容。无', '2017年度，本部门单位实行绩效管理的项目2个，涉及预算13.6万元，项目支出决算13.6万元。年末本部门单位民生项目和重点支出项目的绩效评价开展情况及结果：', '此项目为保留项目，为多年延续、历年均有安排项目。2017年预算资金4万元，根据国家关工委及自治区关工委文件要求，结合我市关工委具体工作，由国家关工委组织，在我市举办公益活动。', '年初预算4万，实际支出4万，此项目17年年底全部支出且全部用于公益帮扶项目，此项目绩效评价为优。', '1.担任副主任的8名老干部，均系市人大、政协、教育部门的离退休的老领导，在从事关心下一代的工作中不计报酬，不辞辛苦，我单位根据自治区关工委有关文件精神，针对这一情况每人每月增加1000元的误餐补助，共计9.6万元。', '2.根据乌教育发[2013]14号文件安排，组织专家报告工作团在学校、社区、宗教寺院等地举办100场“关爱明天，普法先行”宣讲活动，需支付专家讲师的授课费每人500元，共计5万元。', '5.参加第二十一次全国城市关心下一代工作研讨会及学习考察费（在职干部1人、委员会老干部2人）；', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '“三公”经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>294</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>关于印发乌鲁木齐市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-12-28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/gk/lzyj/zfwj/546618.htm</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['乌鲁木齐县、各区人民政府，乌鲁木齐经济技术开发区（头屯河区）、高新技术产业开发区（新市区）、甘泉堡经济技术开发区管委会，市属各委、局、办：', '一、根据《中华人民共和国宪法》《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》《中华人民共和国民族区域自治法》，参照《国务院工作规则》和《新疆维吾尔自治区人民政府工作规则》，结合乌鲁木齐市实际，制定本规则。', '二、市人民政府工作指导思想是：在以习近平同志为核心的党中央亲切关怀下，在自治区党委、自治区人民政府和市委的坚强领导下，高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，认真贯彻党的基本理论、基本路线、基本方略和党中央、国务院的总体部署，坚持和加强党的全面领导，严格遵守宪法和国家法律、法规，坚决贯彻以习近平同志为核心的党中央治疆方略、特别是社会稳定和长治久安总目标，坚决贯彻落实自治区党委、自治区人民政府和市委的决策部署，全面正确履行政府职能，建设人民满意的法治政府、创新政府、廉洁政府和服务型政府。', '三、市人民政府工作的准则是，执政为民，依法行政，科学决策，实事求是，民主公开，务实清廉。', '四、市人民政府由下列人员组成：市长、副市长、秘书长、市人民政府工作部门的主任和局长。市人民政府组成人员要牢固树立政治意识、大局意识、核心意识、看齐意识，坚决维护习近平总书记核心地位、坚决维护以习近平同志为核心的党中央权威和集中统一领导，模范遵守宪法和法律，认真履行职责，为民务实，严守纪律，勤勉廉洁。', '五、市人民政府实行市长负责制。市长领导市人民政府的全面工作，副市长协助市长工作。负责常务工作的副市长协助市长处理政府的日常工作。市长外出期间，受市长委托，由负责常务工作的副市长主持政府工作。', '六、市长召集和主持市人民政府全体会议和政府常务会议。市人民政府工作中的重大事项，必须经市人民政府全体会议或政府常务会议讨论决定。', '七、副市长按分工负责处理分管工作；受市长委托，负责其他方面的工作或专项任务，并可代表市人民政府进行外事活动。', '九、各委员会主任、各局局长和外事办公室（侨务办公室）主任负责本部门的工作。工作中的重要情况及时向分管副市长或市长报告。受市长委托，可代表市人民政府向市人大常委会报告工作。', '市审计局在市长领导下，依照法律规定独立行使审计监督职能，不受其他行政机关、社会团体和个人的干涉。', '政府各部门要各司其职，各负其责，顾全大局，协调配合，切实维护政令统一，坚决贯彻自治区党委、自治区人民政府和市委部署，按照市人民政府安排推动各项工作落实。', '十、市人民政府及各部门要牢牢聚焦社会稳定和长治久安总目标，深入贯彻新发展理念，围绕推动高质量发展，建设现代化产业体系，加强和完善经济调节、市场监管、社会管理、公共服务、生态环境保护职能，深化简政放权、放管结合、优化服务改革，全面提高政府效能，创造良好发展环境，提供基本公共服务，维护社会公平正义。', '十一、加强经济形势研判，全面深入掌握经济运行情况，科学确定调控目标和政策取向，加强预期引导，有效实施区间调控、定向调控、相机调控、精准调控，主要运用经济、法律手段并辅之以必要的行政手段引导和调控经济运行，促进全市经济持续健康发展。', '十二、依法严格市场监管，推进公平准入，加强信用体系建设，强化事中事后监管，健全综合执法体系，规范市场执法，规范行政裁量权，维护全市市场的统一开放、公平诚信、竞争有序，促进大众创业、万众创新，激发市场活力和社会创造力。', '十三、完善社会管理制度，提升能力建设，健全公共安全体系、社会治安防控体系、应急管理体系、社区治理体系，打造共建共治共享的社会治理格局，维护社会公平正义与和谐稳定。', '十四、更加注重公共服务，健全政府主导、社会参与、全民覆盖、普惠共享、城乡一体、可持续的基本公共服务体系，增强基本公共服务能力，加快推进基本公共服务均等化。', '十五、加强生态环境保护，实行最严格的生态环境保护制度，构建政府为主导、企业为主体、社会组织和公众共同参与的环境治理体系，推进绿色发展，建设美丽首府。', '十六、积极运用互联网技术和信息化手段开展工作，更好用信息化手段感知社会态势、畅通沟通渠道、辅助科学决策，持续深化“放管服”改革，深入推进“互联网+政务服务”，完善办事流程，创新服务方式，提高行政效率，优化营商环境，便利企业和群众办事。', '十七、市人民政府及各部门要带头维护宪法和法律权威，严格依法行政，努力建设法治政府，严格按照合法行政、合理行政、程序正当、高效便民、诚实守信、权责统一的基本要求，依法行使权力、履行职责、承担责任。', '十八、市人民政府要根据经济社会发展的需要，适时向市人大及其常务委员会提出地方性法规的议案，依法制定、修改或废止政府规章，规定行政措施，发布决定和命令。', '提请讨论的地方性法规和政府规章草案，由市司法部门审查或者组织起草；政府规章的解释工作由市司法部门承办。', '十九、市人民政府及各部门要坚持科学民主立法，严格遵守法定权限和程序，切实提高政府立法质量和效果。起草地方性法规和政府规章草案，要坚持从实际出发，及时准确反映经济社会发展要求，充分反映人民意愿，使所确立的制度能够切实解决问题，备而不繁，简明易行。', '完善政府立法工作机制，扩大公众参与度。除依法需要保密的外，所有地方性法规和政府规章草案都要通过有效途径公开征求意见。加强立法协调，对部门间争议较大的重要立法事项，应引入第三方评估，充分听取各方意见；对经协调仍达不成一致意见的问题，市司法部门要列明各方理据，提出倾向性意见，及时报请市人民政府决定。', '二十、市人民政府各部门制定的规范性文件，必须符合宪法、法律、法规、规章和国家的方针政策及自治区党委、自治区人民政府、市委、市人民政府有关规定，严格遵守法定权限和程序。', '涉及两个以上部门职权范围的事项，要充分听取相关部门的意见，并由市人民政府制定规范性文件、发布决定、命令，或由有关部门联合制定规范性文件。其中，涉及公众权益、社会关注度高的事项，应当事先报请市人民政府；部门联合制定的重要规范性文件发布前须经市人民政府批准。', '市人民政府及各部门规范性文件发布前，必须严格进行合法性审查，规范性文件不得设定行政许可、行政处罚、行政强制等事项，不得减损公民、法人和其他组织合法权益或者增加其义务。', '各部门规范性文件应当依法及时报市人民政府备案，由市司法部门定期向社会公布目录。规范性文件应当定期进行清理。对违反宪法、法律、行政法规和自治区党委、自治区人民政府、市委、市人民政府决定、命令以及规定不适当的规范性文件，要依法责令制定部门纠正或由市人民政府依法改变、撤销。', '二十一、市人民政府各部门要严格规范公正文明执法，健全规则，规范程序，落实责任，强化监督，做到有法必依、执法必严、违法必究，维护公共利益、人民权益和社会秩序。', '二十二、市人民政府及各部门要完善行政决策程序规则，把公众参与、专家论证、风险评估、合法性审查和集体讨论决定作为重大决策的法定程序，增强公共政策制定透明度和公众参与度。', '二十三、全市国民经济和社会发展计划、财政收支预决算方案、重大规划、宏观调控和改革开放的政策措施、社会管理重要事务、地方性法规议案和政府规章等重大事项，由市人民政府全体会议或市人民政府常务会议讨论决定。', '二十四、政府各部门提请市人民政府研究决定的重大事项，都必须经过深入调查研究，并进行合法性、必要性、科学性、可行性和可控性评估论证；涉及相关部门的，应当充分协商；涉及有关区（县）的，应当事先征求意见；涉及重大公共利益和公众权益、容易引发社会稳定问题的，要进行社会稳定风险评估，并采取听证会等多种形式听取各方面意见。', '在重大决策执行过程中，要跟踪决策的实施情况，了解利益相关方和社会公众对决策实施的意见和建议，全面评估决策执行效果，及时调整完善。', '二十五、市人民政府在作出重大决策前，根据需要通过多种形式，直接听取民主党派、社会团体、专家学者、社会公众等方面的意见和建议。', '二十六、市人民政府领导同志要亲力亲为抓落实，主动谋划政策举措，解决矛盾问题，扎实推进工作，确保政令畅通、令行禁止。', '政府各部门必须坚决贯彻落实自治区党委、自治区人民政府和市委、市人民政府的决定、命令，部门主要负责同志是第一责任人。要细化任务措施，层层压实责任，加强政策配套，强化协同攻坚，及时跟踪和反馈执行情况。涉及多部门参与的工作，牵头部门要发挥主导作用，协办部门要积极配合，形成工作合力。', '市人民政府办公厅要加强对各部门、各区（县）的督查，坚持全面督查与专项督查相结合，健全限期报告、核查复核、督促整改、情况通报及第三方评估等制度，坚决落实自治区领导同志重要指示批示精神，推动市委、市人民政府重大决策部署和市领导同志批示精神贯彻落实。', '二十七、市人民政府及各部门要把公开透明作为政府工作的基本制度，坚持以公开为常态、不公开为例外，深化政务公开。加强政务服务体系建设，完善政务公开制度，健全政府信息发布制度，全面推进决策、执行、管理、服务、结果公开。', '二十八、市人民政府全体会议和常务会议讨论决定的事项、市人民政府及各部门制定的政策，除依法需要保密的外，应及时公布。', '二十九、凡涉及公共利益、公众权益、需要广泛知晓的事项，社会关切的事项，法律和国家、自治区规定需要公开的事项，均应通过政府网站、新闻发布会、政府信息查阅点以及报刊、广播、电视、网络等方式，依法、及时、全面、准确、具体地向社会公开。', '三十、市人民政府及各部门要加强政策解读，准确传递政策意图，重视市场和社会反映，及时回应公众关切，解疑释惑，稳定预期。', '三十一、市人民政府要自觉接受市人大及其常委会的监督，认真负责地报告工作，接受询问和质询，依法备案政府规章；自觉接受市政协的民主监督，虚心听取意见和建议。', '政府各部门要依法认真办理人大代表议案、建议和政协委员提案，加强与代表委员沟通，严格责任，限时办结，主动公开办理结果。', '三十二、市人民政府及各部门公职人员要依照有关法律的规定自觉接受监察机关的监督。政府各部门要依照有关法律的规定接受人民法院依法实施的监督，做好行政应诉工作，尊重并自觉履行人民法院的生效判决、裁定，同时要自觉接受审计等部门的监督。对监督中发现的问题，要认真整改并向市人民政府报告。', '三十三、市人民政府及各部门要严格执行行政复议法，加强行政复议指导监督，纠正违法或不当的行政行为，依法及时化解行政争议。', '三十四、市人民政府及各部门要接受社会公众和新闻舆论的监督，认真调查核实有关情况，及时依法处理和改进工作。重大问题要向社会公布处理结果。', '三十五、市人民政府及各部门要重视信访工作，进一步完善信访制度，畅通和规范群众诉求表达、利益协调、权益保障渠道；市人民政府领导同志及各部门负责人要亲自阅批重要的群众来信，督促解决重大信访问题。', '三十六、市人民政府及各部门要严格执行工作责任制，严格绩效管理和行政问责，加强对重大决策部署落实、部门职责履行、重点工作推进以及自身建设等方面的考核评估，建立健全重大决策终身责任追究制度及责任倒查机制，健全激励约束、容错纠错机制，严格责任追究，提高政府公信力和执行力。', '三十八、市人民政府全体会议由市长、副市长，政府秘书长、各政府工作部门行政主要领导组成，由市长或委托负责常务工作的副市长召集和主持。会议的主要任务是：', '（一）传达贯彻党中央、国务院，自治区党委、自治区人民政府及市委的重要决定、指示和重要会议精神；', '三十九、市人民政府常务会议由市长、副市长，政府秘书长组成，由市长或委托负责常务工作的副市长召集和主持。常务会议的主要任务是：', '（二）研究贯彻党中央、国务院，自治区党委、自治区人民政府及市委的重要决定、指示，分析研究全市经济和社会发展形势，制定有关政策措施；', '（六）讨论研究提交市人代会审议的《政府工作报告》，讨论决定提交市人代会审议的国民经济和社会发展计划报告及财政预算、决算报告；', '（七）听取市人民政府各部门、各直属机构和区（县）人民政府（开发区管委会）的工作汇报，研究决定所请示的重大事项；', '常务会议一般半个月召开一次，如有需要可临时召开。根据需要可安排有关部门、单位和区（县）负责人列席会议。', '四十、市人民政府全体会议、常务会议的议题，由分管副市长协调或审核后，报市长确定。提交会议审议的政策法规类议题，会前须由分管副市长或副秘书长召集相关单位认真研究并广泛征求意见，经市司法部门审核后方可提交；提交会议审议的综合协调类议题，会前须由分管副市长或副秘书长进行会前协调，可采取召开协调会或书面征求意见的形式，形成一致性或倾向性意见后方可提交。会议的组织工作由市人民政府办公厅负责，会议材料不得带出会场。', '市人民政府全体会议和市人民政府常务会议文件由议题汇报部门牵头会同有关部门起草。会议文件应全面准确客观反映议题情况和各方面意见，注重解决实际问题，突出针对性、指导性、前瞻性和可操作性。涉及法律法规和规范性文件的，应备而不繁，逻辑严密，条文明确具体，用语准确简洁。市人民政府办公厅要加强审核把关。', '四十一、市人民政府全体会议、常务会议讨论决定的事项，各相关部门、区（县）要坚决贯彻执行，全力以赴抓好落实。对于延误工作、造成严重后果的部门，要严肃追究责任。会议决定事项的落实情况，由市人民政府办公厅负责催办、督查，并及时向市人民政府领导同志汇报。宜于公开的会议决定事项，应及时报道。新闻稿须经秘书长或有关副秘书长审定，如有需要报市长、副市长审定。', '市人民政府全体会议、常务会议讨论决定提交自治区人民政府、自治区相关厅局、市委、市人大研究审定的议题，有关部门要根据会议精神进行修改完善，原则上要在会议结束3个工作日内报分管领导审定后按规定程序签批；有重大修改意见需要协调的，须在会议结束5个工作日内报分管领导审定后按规定程序签批。特殊情况下，无法按期完成的，由主办部门书面报告分管市领导批准，并在办公厅备案。', '四十二、市人民政府领导同志和有关部门主要负责同志应提前做好工作安排，确保按时参加市人民政府全体会议和市人民政府常务会议。除特殊原因外，原则上不得请假。市人民政府领导同志不能出席全体会议、常务会议，应向市长或负责召集和主持会议的负责常务工作的副市长请假。全体会议其他组成人员或常务会议列席人员请假，会前应向秘书长报告，并向市人民政府办公厅报备。', '四十三、市人民政府全体会议和常务会议的纪要，由市人民政府办公厅起草，按程序报市长签发。', '市人民政府全体会议和常务会议讨论通过决定印发的文件，原则上须在会议结束7个工作日内印发。', '四十四、市人民政府及各部门召开的各类会议，要减少数量、控制规模，严格审批，按需要安排有关领导出席会议，减少参会人员。原则上一个部门召开全市性会议一年不超过一次。受委托由市属有关部门组织在我市召开的全疆性、区域性行业会议，必须经市人民政府批准。', '四十五、各部门召开的全市性会议，原则上只安排与会议内容密切相关的部门参加，会期不超过半天，市人民政府主要领导原则上不出席，分管副市长可视情况出席；原则上不邀请各区（县）人民政府负责人参加，如确需邀请的，须报市人民政府批准。', '四十六、各类会议都要充分准备，提高效率，重在解决问题。要坚持开短会、讲短话，提高会议质量。常务会议及其它已印发书面材料的专题会议，议题汇报人员一般不宣读文件，只讲要点和需要会议研究解决的问题，发言时间不超过5分钟。', '四十七、市人大常委会召开的会议，一般由副市长参加，特殊情况下，可委托政府秘书长、副秘书长或相关部门负责同志参加。', '四十八、市人民政府上报自治区人民政府的公文，以及各区（县）、各部门上报市人民政府的公文，应当符合《党政机关公文处理工作条例》和《新疆维吾尔自治区党政机关公文处理工作实施细则（试行）》的规定，严格遵循行文规则和程序。行文应当确有必要，讲求实效；未经批准不得越级行文，不得多头报文；请示应当一文一事，报告不得夹带请示事项。除市人民政府领导同志交办事项和必须直接报送的绝密级事项外，一般不得直接向市人民政府领导同志个人报送公文。', '拟提请市委有关会议审议或提请以市委、市人民政府名义联合发文的文件稿，内容主要涉及政府职责且牵头起草部门为政府部门的，应先按程序报市人民政府履行相关审议或审批程序。', '四十九、各部门报送市人民政府的请示性公文，凡涉及其他部门职权的，必须主动与相关部门充分协商，由主办部门主要负责人与相关部门负责人会签后联合报市人民政府审批。部门之间有分歧的，主办部门主要负责人要主动协商；协商后仍不能取得一致意见的，主办部门应列明各方理据，提出办理建议，与相关部门负责人会签后报市人民政府决定。', '部门之间征求意见或会签文件时，除主办部门另有时限要求外，一般应在7个工作日内回复；特殊情况不能按期回复的，应主动与主办部门沟通并商定回复时限及方式，逾期不回复视为无不同意见。', '五十、各区（县）、各部门报送市人民政府审批的公文，以及以市人民政府和市人民政府办公厅名义印发的公文，统一由市人民政府办公厅按规定程序办理，并按市人民政府领导同志分工呈批，重大事项报市长审批。', '五十一、市人民政府发布的规章、决定、命令，向市人大常委会提出的议案、人员任免文件，由市长签署。', '以市人民政府名义上报自治区人民政府、市委审批的文件和下发的公文，经分管副市长审核后，由市长签发。以市人民政府名义向自治区各厅局的行文，由分管副市长签发，重要公文报市长或负责常务工作的副市长签发。', '以市人民政府办公厅名义发文，由秘书长或办公厅主任签发，或由副秘书长核报分管的副市长签发；如有必要，可报市长或常务副市长签发。属市人民政府办公厅职责范围内的发文，由秘书长或办公厅主任签发。', '五十二、各区（县）、各部门报送市人民政府审批的公文，必须由各区（县）、各部门的主要负责同志签发。', '五十三、市人民政府及各部门要精简文件简报。加强发文统筹，从严控制发文数量、发文规格和文件篇幅。属部门职权范围内事务、应由部门自行发文或联合发文的，不以市人民政府或市人民政府办公厅名义发文。凡法律、行政法规已作出明确规定、现行文件已有部署且仍然适用的，一律不再制发文件。分工方案原则上应与文件合并印发，不单独发文。每个部门原则上只向市人民政府报送1种简报。没有实质内容、可发可不发的文件简报，一律不发。', '五十四、做好文件归档工作。依据档案法及有关规定，注重平时工作过程档案资料的积累、收集和整理，完整收集文件办理全卷宗材料，全面规范地做好档案归档工作。', '五十五、市人民政府组成人员要坚决贯彻执行党中央、国务院的路线方针政策以及工作部署，坚决贯彻落实自治区党委、自治区人民政府和市委各项决策和指示，严格遵守纪律，有令必行，有禁必止。', '五十六、市人民政府组成人员必须坚决执行市人民政府的决定，如有不同意见可在市人民政府内部提出，在重新作出决定前，不得有任何与市人民政府决定相违背的言论和行为。', '五十七、市人民政府领导同志代表市人民政府发表讲话或文章，个人发表讲话或文章，事先须按程序报市人民政府批准；市人民政府其他组成人员代表市人民政府发表讲话或文章，个人发表涉及未经市人民政府研究决定的重大问题及事项的讲话或文章，事先须按程序报市人民政府批准。', '五十八、市人民政府组成人员要严格执行请销假制度。副市长离乌出访、出差和休养，应事先报告市长，由市人民政府办公厅通报市人民政府其他领导同志。', '各部门主要负责人离乌外出学习、考察、出差、休假等，应事先向市人民政府办公厅报告，由市人民政府办公厅向市长和政府分管领导同志报告。', '五十九、市人民政府各部门发布涉及政府重要工作部署、经济社会发展重要问题的信息，要经过严格审定，与社会公众利益密切相关的突发事件、安全生产事故等重大情况要及时向市人民政府报告。', '六十、市人民政府组成人员要严格遵守保密纪律和外事纪律，严禁泄漏国家秘密、工作秘密或者因履行职责掌握的商业秘密等，坚决维护国家的安全、荣誉和利益。', '六十一、市人民政府及各部门要认真贯彻全面从严治党要求，严格落实中央八项规定及其实施细则、自治区实施办法、“十要十严禁”规定和市委相关规定等精神，严格执行廉洁从政各项规定，切实加强廉政建设和作风建设。', '六十二、市人民政府及各部门要从严治政。对职权范围内的事项要按程序和时限积极负责地办理，对不符合规定的事项要坚持原则不得办理；对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要追究责任；对越权办事、以权谋私等违规、违纪、违法行为，要严肃查处。', '六十三、市人民政府及各部门要严格执行财经纪律，艰苦奋斗、勤俭节约，坚决制止奢侈浪费，严格执行住房、办公用房、车辆配备等方面的规定，严格控制差旅、会议经费等一般性支出，切实降低行政成本，建设节约型机关。', '严格控制因公出国（境）团组数量和规模，认真执行国家和自治区有关规定，规范出访活动。改革和规范公务接待工作，不得用公款相互送礼和宴请，不得接受区（县）和部门的送礼和宴请。严格控制和规范论坛、庆典、节会等活动。各类会议活动经费要全部纳入预算管理。', '六十四、市人民政府组成人员要廉洁从政，严格执行领导干部重大事项报告制度，不得利用职权和职务影响为本人或特定关系人谋取不正当利益；不得违反规定干预或插手市场经济活动；加强对亲属和身边工作人员的教育和约束，决不允许搞特权。', '六十五、市人民政府组成人员要强化责任担当，勤勉干事创业，真抓实干、埋头苦干，不能简单以会议贯彻会议、以文件落实文件，力戒形式主义、官僚主义、享乐主义和奢靡之风。', '六十七、市人民政府领导同志要坚持“民生优先、群众第一、基层重要”的理念，深入基层，调查研究，指导工作，注重研究和解决实际问题。', '到基层要轻车简从，减少陪同，简化接待，不安排迎送。除工作需要外，不去商务会所、风景区参观。', '六十八、市人民政府组成人员应集中精力研究处理全市中心工作和重大问题，以市委、市人民政府名义召开的会议和举办的活动，由市人民政府办公厅商市委办公厅协调安排，实行统一报批。市人民政府各工作部门和各区（县）政府邀请市人民政府领导出席的会议、活动均应事先书面请示，由市人民政府办公厅根据领导分工、工作需要及有关规定，提出审核意见报秘书长审批。经批准的重要会议或活动，原则上只安排1位市人民政府领导出席。', '六十九、市人民政府领导同志不为部门和地方的会议活动等发贺信、贺电，不题词、题字、作序，因特殊需要发贺信、贺电和题词等，一般不公开发表。市人民政府领导同志出席会议活动、考察调研等的新闻报道和外事活动安排，按有关规定办理。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>294</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>年度乌鲁木齐市老干部局部门决算公开说明</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-09-05</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/labgzj/401871.htm</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['1．贯彻落实中央、自治区、市有关老干部工作的方针、政策，落实好老干部政治、生活待遇，进一步完善离休费、医疗费、财政支持三个保障机制。', '2．制定和参与制定全市老干部工作有关政策、规定。对全市老干部工作出现的新情况、新问题进行调查研究，并提出相应的对策和措施，为市委市政府决策提供依据。', '2017年，市委老干部局系统纳入部门预算范围的单位共计5家，其中：局本级一级预算单位1家，二级预算单位4家；具体是：市老干部活动中心、市第一干部休养所、市第二干部休养所、市关心下一代委员会办公室。', '从决算单位构成看，乌鲁木齐市老干部局部门决算包括：市委老干部局本级决算、所属单位决算等。', '与预算相比情况。2017年度收入1117.25万元，支出1095.76万元，我单位预算安排资金与实际支出的比例基本一致，不存在较大差异；实际支出中，基本支出较上年增加，因我单位新招录公务员2两名，故人员工资有所增加，追加“访惠聚”经费及人员工资指标导致基本支出增大；项目支出较上年减少，主要由于我单位遗孀补助项目中有遗孀去世导致应发放金额减少，其他项目变化不大。 其他有关说明内容。无', '本年支出合计1095.76万元，其中：基本支出824.92万元，占75.28%；项目支出270.84万元，占24.72%；上缴上级支出0万元，占0%；经营支出0万元，占0%；对附属单位补助支出0万元，占0%。增减变化的主要原因是：不存在较大差异；实际支出中，基本支出较上年增加，因我单位新招录公务员2两名，故人员工资有所增加，追加“访惠聚”经费及人员工资指标导致基本支出增大；项目支出较上年减少，主要由于我单位遗孀补助项目中有遗孀去世导致应发放金额减少，其他项目变化不大。', '与预算相比情况。本年支出合计1095.76万元，与预算相比增加了162.35万元，主要原因是我单位新招录公务员2两名，故人员工资有所增加，追加“访惠聚”经费及人员工资指标导致基本支出增大。', '与预算相比情况。2017年度财政拨款收入比预算数多了182.26万元，主要原因是访惠聚经费跟奖金的支出增加和新招录了两名公务员人员经费支出增加。', '与预算相比情况。2017年度一般公共预算财政拨款支出1094.18万元，增加42.74万元,增减变化的主要原因是：人员经费和访惠聚经费增加,增加了一项死亡抚恤金。', '2017年度政府性基金预算财政拨款收入0万元，与上年相比，增加（减少）0万元，增长（降低）0%。增减变化的主要原因是：无。政府性基金预算财政拨款支出0万元，与上年相比，增加（减少）0万元，增长（降低）0%。增减变化的主要原因是：无。', '因公出国（境）费支出0万元。0单位全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。开支内容包括：无。', '公务用车购置及运行维护费18.46万元，其中，公务用车购置0万元，公务用车运行维护费18.46万元。主要用于办公、业务活动、老干部活动、看望老干部遗孀等。2017年，单位一般公共财政拨款安排的公务用车购置量19辆，保有量为19辆。', '公务接待费0万元。具体是：国内公务接待支出0万元，主要是没有安排出国事项等。0单位国内公务接待0批次，0人次。', '与预算相比情况。2017年度一般公共预算“三公”经费支出决算18.46万元，比预算数减少了10.65万元，主要原因是我单位严格控制车辆运行费和出车次数。', '2017年度市委老干部局部门单位机关运行经费支出130.91万元，比上年减少37.23万元，降低22.14%，主要原因是根据财政要求严格控制机关运行经费的支出并且机关运行经费的统计范围有所变化。', '市委老干部局部门单位政府采购计划24.62万元，其中：政府采购货物支出24.62万元、政府采购工程支出0万元、政府采购服务支出0万元；实际采购24.62万元，其中：政府采购货物支出24.62万元、政府采购工程支出0万元、政府采购服务支出0万元。其他有关说明内容。无', '2017年度，本部门单位实行绩效管理的项目9个，涉及预算249万元，项目支出决算270.84万元。年末本部门单位民生项目和重点支出项目的绩效评价开展情况及结果：', '此项目为保留项目，为多年延续、历年均有安排项目。2017年预算资金4万元，根据国家关工委及自治区关工委文件要求，结合我市关工委具体工作，由国家关工委组织，在我市举办公益活动。', '年初预算4万，实际支出4万，此项目17年年底全部支出且全部用于公益帮扶项目，此项目绩效评价为优。', '1.担任副主任的8名老干部，均系市人大、政协、教育部门的离退休的老领导，在从事关心下一代的工作中不计报酬，不辞辛苦，我单位根据自治区关工委有关文件精神，针对这一情况每人每月增加1000元的误餐补助，共计9.6万元。', '2.根据乌教育发[2013]14号文件安排，组织专家报告工作团在学校、社区、宗教寺院等地举办100场“关爱明天，普法先行”宣讲活动，需支付专家讲师的授课费每人500元，共计5万元。', '5.参加第二十一次全国城市关心下一代工作研讨会及学习考察费（在职干部1人、委员会老干部2人）；', '2017年财政预算安排项目资金91.08万元。主要是“离休老干部及地市级退休干部管理活动费”综合项目预算增加。主要用于：', '（1）元旦、古尔邦、春节“三节”慰问经费。根据2008年市财经领导小组第一次会议纪要批示，慰问标准为老红军及遗孀2000元/人，其他离休干部1000元/人；2013年古尔邦节慰问期间，根据市委市政府领导要求，参照自治区慰问标准指示，老红军及遗孀提高至3000元/人，其他离休干部及退休地厅级干部提高至2000元/人；根据新党办法[2017]47号文，健全落实慰问制度，在重要纪念日、重大庆典等期间走访慰问，将此支出单独列入每年财政预算。', '①根据新党办发[2017]47号文，在离退休干部生日、患病住院、家庭出现重大变故时及时关心看望。此项目总体绩效评价优。', '根据2008年财经领导小组第二次会议纪要批示24万元，用于开展企业离休老干部活动。', '根据新党组通字[2014]11号《关于调整离休干部活动费的通知》，离休干部活动费调整至每人每年700元，疗养费、根据新党办法[2017]47号文，每年至少走访慰问易地安置离休老干部一次。易地安置和异地居住共31名离休老干部。为了树牢总目标，开展其他老干部活动。', '2017年老干部遗孀生活补助及取暖费预算金额92.7万元。遗孀生活困难补助费：根据自治区党委办公厅人民政府办公厅转发《自治区党委组织部等四部门关于提高已故离休干部和同期参加革命工作已故老工人无固定收入配偶生活困难补助费标准的意见》的通知（新党办发【2016】42号）；根据自治区人民政府办公厅下发《关于对参加自治区城镇企业职工基本养老保险统筹的离退休人员实施冬季采暖费补贴的通知》，对我市现有56人无收入企业离休干部遗孀个人全额支付取暖费每月标准120元/人。', '此项目年底全部支出，按月足额发放，使无固定收入遗孀感受到党的关怀和温暖。此绩效考评为优。', '2017年安排预算资金15.2万元。结合中组发[2008]10号文件，根据2008年财经领导小组第三次会议纪要批示。此项目为多年延续、历年均有安排项目。对特殊困难的离退休干部建立完善的帮扶机制，用于解决他们在生活、医疗等各方面的实际困难和问题，家庭困难帮扶补助。', '此项目主要用于1、元旦、春节、三八、五一、七一、八一、十一、中秋、重阳节等特定节日组织老干部文艺活动、各类棋牌类比赛的用品及奖品。2、用于组织老干部、家属、遗孀近郊参观旅游。3、用于老干部的京剧小组、秦腔小组、书画小组、老年合唱队、门球队等兴趣小组组织活动。4、用于代管老干部元旦、春节、五一、十一、中秋等节日的慰问，订阅报刊杂志，近郊旅游等费用。开展情况顺利，绩效评价优。', '此项活动为我单位下属单位乌鲁木齐市第二干部休养所项目主要用于1、元旦、春节、三八、五一、七一、八一、十一、中秋、重阳节等特定节日组织老干部文艺活动、各类棋牌类比赛的用品及奖品。2、用于组织老干部、家属、遗孀近郊参观旅游。3、用于老干部的京剧小组、秦腔小组、书画小组、老年合唱队、门球队等兴趣小组组织活动。4、用于代管老干部元旦、春节、五一、十一、中秋等节日的慰问，订阅报刊杂志，近郊旅游等费用。开展顺利，绩效考核优。', '此项经费为历年安排的项目，2017年度预算为10万元，主要用于老年大学授课费及教学费用。此项目按计划全部完成，绩效考核优。', '此项经费由小额维修费及活动费二项组成，为历年安排的项目，2017年度核拨预算为16.42万元，小额维修费主要用于门头牌匾更换及亮化、整栋楼的日常维护、电器、水、电、暖、各路管线、音响设备、视频设备的日常维护维修等', '活动费主要用于：1、根据组织部门宣传需要配合组织各类宣传活动、2、组织各类协会活动、举办摄影展、图片展、书画作品展、四次钓鱼比赛（七月份二次手杆、八月份二次海杆比赛）、九九重阳节等大型活动。', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '“三公”经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>294</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>年乌鲁木齐市人力资源和社会保障局本级部门决算公开说明</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2018-09-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/fjbm/rsj/rlzyhshbzj/473162.htm</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['2017 年乌鲁木齐市人力资源和社会保障局本级部门决算公开说明 - 乌鲁木齐市人民政府', '一、部门单位基本情况，包括：部门主要职能和机构设置情况、年末编制情况、实有人数情况等。', '）贯彻执行国家、自治区和我市有关人力资源和社会保障工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，组织编制人力资源和社会保障中、长期规划和年度计划，并组织实施和监督检查。', '）拟订并组织实施全市人力资源市场发展规划和人力资源流动政策，建立统一规范的人力资源市场，促进人力资源合理流动、有效配置。', '）负责促进就业工作。拟订并组织实施城乡就业发展规划和政策、措施，健全公共就业服务体系以及就业创业政策，完善公共就业服务体系；组织实施就业援助、职业资格和职业培训制度；贯彻落实高校毕业生就业政策和高技能人才、农村实用人才培养激励政策。', '）负责社会保障体系建设工作。贯彻执行国家和自治区养老、失业、医疗保险政策；拟订全市工伤、生育保险基本政策；拟订社会保险基本标准，并组织实施和监督检查；制定城乡社会保险服务体系建设规划并组织实施；贯彻执行国家和自治区社会保险基金收缴、支付、管理政策，承担社会保险基金管理行政监督责任；负责编制社会保险基金预决算草案。', '）负责机关、事业单位工作人员工资调整、晋升工作，审核机关、事业单位工资总额，促进建立机关企事业单位人员工资正常增长和支付保障机制；拟订机关企事业单位人员福利和离退休政策的实施办法，并组织实施；综合管理机关、事业单位工作人员和企业职工工（公）伤（病）残鉴定和有关待遇工作；参与市级企业劳动模范评定工作。', '）会同有关部门指导事业单位人事制度改革工作，研究拟订相关配套政策、规定和办法，并组织实施；参与人才管理工作，制定并组织实施专业技术人员管理和继续教育政策，牵头推进深化职称制度改革工作；负责博士后管理相关办法的组织实施工作，负责全市专业技术人才选拔和培养工作。', '）会同有关部门拟订军队转业干部安置政策和安置计划，负责军队转业干部教育培训工作；负责自主择业军队转业干部管理服务工作。', '）负责公务员综合管理；贯彻执行人员调配政策和特殊人员安置政策；会同有关部门组织落实国家荣誉制度，组织实施政府奖励制度。', '）会同有关部门拟订农民工工作政策和规划，监督落实农民工相关政策，协调解决重点难点问题，维护农民工合法权益。', '）负责劳动人事争议调解仲裁工作；指导、监督劳动关系政策落实工作，完善劳动关系协调机制；贯彻落实消除未成年工的特殊劳动保护政策；组织实施劳动监察。', '）负责外国专家管理工作；负责管理引进国（境）外人才和智力工作，加强国际交流与合作工作；综合管理出国（境）的培训工作。', '）承担人力资源和社会保障统计和信息工作；组织建设人力资源和社会保障统计信息网络，定期发布人力资源和社会保障事业统计公报和发展预测报告。', '个处（室），分别为：办公室、政治处、政策法规处、规划财务处、就业促进处、人力资源规划发展处、职业能力建设处、专业技术人员管理处、劳动关系处、劳动监察处、事业单位人事管理处、农民工工作处、工资福利处、军官转业安置处、引进国外智力处（市外国专家局）、养老保险处、工伤保险处、失业保险处、医疗生育保险处、农村社会保险处、社会保险基金监督处、纪检监察室、老干部工作处。', '、人员编制情况：局本级（含乌鲁木齐市公务员局、市职称社会化评价办公室、市继续教育工考培训管理办公室）编制人数', '从决算单位构成看，市人力资源和社会保障局本级（单位）部门决算包括：市人力资源和社会保障局（单位）部门本级决算。', '，增减变化主要原因是：新增农村富余劳动力转移就业工作；为改善社会保险经办机构经办场所，提供更优质的服务环境而进行的劳动就业社会保障服务中心改扩建工作。支出', '，增减变化主要原因是：新增项目农村富余劳动力转移就业专项经费、劳动就业社会保障服务中心改扩建项目费、继续教育办工作经费、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项、双语培训专项经费、失业保险宣传费支出、死亡抚恤金。结余', '，新增农村富余劳动力转移就业工作；为改善社会保险经办机构经办场所，提供更优质的服务环境而进行的劳动就业社会保障服务中心改扩建工作；', '，新增项目农村富余劳动力转移就业支出、劳动就业社会保障服务中心改扩建项目支出、继续教育办工作经费支出、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项支出、双语培训专项经费支出、失业保险宣传费支出、死亡抚恤金支出等。', '。增减变化的主要原因是：新增农村富余劳动力转移就业工作；为改善社会保险经办机构经办场所，提供更优质的服务环境而进行的劳动就业社会保障服务中心改扩建工作；落实就业政策、大力提升公共就业服务水平再就业工作；贯彻落实《关于进一步做好人才工作的若干意见》，深入实施人才优先发展战略，全市人才队伍建设不断加强人才发展专项工作；为提高培训平台软件架构、丰富的培训课件内容而开展的乌鲁木齐人力资源培训网建设工作；', '，新增农村富余劳动力转移就业工作；为改善社会保险经办机构经办场所，提供更优质的服务环境而进行的劳动就业社会保障服务中心改扩建工作；落实就业政策、大力提升公共就业服务水平再就业工作；贯彻落实《关于进一步做好人才工作的若干意见》，深入实施人才优先发展战略，全市人才队伍建设不断加强人才发展专项工作；为提高培训平台软件架构、丰富的培训课件内容而开展的乌鲁木齐人力资源培训网建设工作；', '。增减变化的主要原因是：新增项目农村富余劳动力转移就业支出、劳动就业社会保障服务中心改扩建项目支出、继续教育办工作经费支出、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项支出、双语培训专项经费支出、失业保险宣传费支出、死亡抚恤金支出。', '。新增项目新增项目农村富余劳动力转移就业支出、劳动就业社会保障服务中心改扩建项目支出、继续教育办工作经费支出、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项支出、双语培训专项经费支出、失业保险宣传费支出、死亡抚恤金支出。', '万元。增减变化的主要原因是：新增项目支出农村富余劳动力转移就业专项经费、劳动就业社会保障服务中心改扩建项目费、继续教育办工作经费、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项、社区工作经费、抚恤金。财政拨款结转结余', '，增减变化的主要原因是：新增农村富余劳动力转移就业工作；为改善社会保险经办机构经办场所，提供更优质的服务环境而进行的劳动就业社会保障服务中心改扩建工作；落实就业政策、大力提升公共就业服务水平再就业工作；贯彻落实《关于进一步做好人才工作的若干意见》，深入实施人才优先发展战略，全市人才队伍建设不断加强人才发展专项工作；为提高培训平台软件架构、丰富的培训课件内容而开展的乌鲁木齐人力资源培训网建设工作；', '，增减变化的主要原因是：新增项目支出农村富余劳动力转移就业专项经费、劳动就业社会保障服务中心改扩建项目费、继续教育办工作经费、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项、社区工作经费、抚恤金。', '。增减变化的主要原因是：新增项目支出农村富余劳动力转移就业专项经费、劳动就业社会保障服务中心改扩建项目费、继续教育办工作经费、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项、社区工作经费、抚恤金。财政拨款结转结余', '。增减变化的主要原因是：新增项目支出农村富余劳动力转移就业专项经费、劳动就业社会保障服务中心改扩建项目费、继续教育办工作经费、离退休人员医养园、实训基地建设项目、医保价格谈判机制、人才发展专项、社区工作经费、抚恤金。', '年度公开招录公务员工作和面向内地部分重点高校应届硕士以上毕业生招录工作。其中，面向社会公开招录公务员工作从年初启动，经过申报计划、发布简章、网络报名与资格审查、笔试、资格复审、面试、体检、考察、公示和录用等环节，到', '月底全部完成；面向内地部分重点高校应届硕士以上毕业生招录从年初启动，经过申报计划、发布简章、报名与资格审查、面谈、体检、考察、公示和录用等环节，', '余名，一定程度上缓解了我市各级机关对人才的需求；公务员奖励工作调动了乌鲁木齐市广大公务员开拓创新、争先创优积极性，提高了公务员工作效能；公务员培训工作进一步提升公务员道德水平、能力素养和作风修养，使公务员更好地服务于社会和人民群众。', '本。经过不断修改与完善，达到职称评审网上申报、网上评审、网上公示、网上审批、证书网上查询等，实现了职称数字化评审。', '）项目依据：《关于改变自治区各级国家机关、事业单位工作人员福利费提取办法和标准的通知》（新劳人字', '）项目开展的情况：组织开展慰问儿童福利院工作；开展部分基层一线职工走访慰问工作；开展部分机关事业单位退休干部职工走访慰问工作；重阳节前夕组织开展慰问养老福利院工作；组织开展部分在职和退休人员人员进行体检工作；组织全市机关、事业单位近三年获得过各级奖励且未参加过休养的在编在岗在职人员赴内地休养。', '）项目成果：切实体现市委、市政府对广大职工、退休老同志、孤残儿童及孤寡老人的关心和爱护，激励职工的工作积极性，促进我市各项事业的发展。', '年组建乌鲁木齐人力资源培训网（以下简称乌培网），由市继续教育工考培训管理办公室负责维护业务运营，是服务于乌鲁木齐市的政府培训网站。通过', '年市政府财政支持，乌培网已经具有了较为完备的硬件和网络环境，培训平台软件架构，较为丰富的培训课件内容，现有网络培训注册学员近', '万人，已成为乌鲁木齐市重要的政府培训网站。乌培网可满足大规模干部培训需求，主要培训对象以国家公务员、企事业单位管理人员和专业技术人员为主。乌培网的师资均来自国内外著名的专家学者和名牌大学的资深教授，现已开发制作了数百门课程、上千课时的网络培训课件。', '年完成乌鲁木齐市公务员网络培训工作。研发了政治理论、经济发展、城市管理和能力建设五大模块', '年完成乌鲁木齐市专业技术人员继续教育网络培训工作。在建筑工程类、市政水利工程类、园林工程类等专业继续教育培训中推进网络培训工作，共计完成', '号）文件、自治区、兵团、《乌鲁木齐市医疗保险联合联动机制工作实施方案》（新社险字〔', '号）文件、《关于乌鲁木齐市城镇职工和灵活就业人员基本医疗保险参保人员选择定点医疗机构的通知》（乌劳〔', '）项目开展情况：召开医、保、患三方医保争议裁定、研讨会；定点医院、定点零售药店日常专项检查工作；内地学习、考察；部门间联动稽查工作，联合发改、食品药监、卫生部门稽核。', '）项目成果：进一步提高参保人员医疗待遇水平，强化异地医疗结算工作，扩大医疗保险覆盖面，确保社保基金安全有效运行。', '）项目开展情况：认真做好机关事业单位工作人员的各类增资变动和确定工资待遇的审批兑现工作。机关事业单位工作人员退休审批工作。开展转企改制单位退休人员事业待遇核定工作。', '）项目成果：为实现机关事业单位工作人员养老保险统筹并轨打下坚实基础；确保我市不同性质事业单位绩效工资制度改革平稳顺利实施；逐步形成科学完备、规范有序的公务员工资收入体系。', '余名事业单位工作人员举办了三期统计实操培训，通过平台操作演示、上机指导操作，指导事业单位有效开展统计工作。', '年各单位申报优秀、紧缺人才的审核、引进工作；做好事业单位公开招聘工作；做好市、区（县）两级事业单位面向社区（村）选拔科级以下管理人员工作；做好', '）项目成果：引进紧缺人才，缓解事业单位特殊岗位人才问题；基层人才队伍；引进优秀人才，落实人才待遇政策。', '共中央组织部、人力资源社会保障部、财政部等五部门《关于进一步加强流动人员人事档案管理服务工作的通知》（人社部发【', '号）和自治区党委组织部、人力资源和社会保障厅、财政厅等五部门《关于进一步做好自治区流动人员人事档案管理服务工作的通知》（新人社发【', '）项目成果：维护人事档案材料完整，防止材料损坏，便于档案材料的使用。保证人事档案完整、安全，积极做好档案接收、整理、保管、利用和转递工作，逐步提高我市流动人员公共就业服务水平。', '）项目依据：中共中央办公厅、国务院办公厅印发的《关于推行法律顾问制度和公职律师公司律师制度的意见》（中办发〔', '参与处理解答群众来信来访问题中涉及的法律事宜，参与运用法治方式解决突出问题的调研，参与探讨建立规范工作流程和制度，完善协调机制，对群众来信来访中反映的突出问题及重大问题提供专项法律意见，协助我局对群众来信来访的诉求进行国家政策和国家法律规定面对面的解释和说明。', '）项目开展情况：业务楼日常电费、水费、暖气费；物业、安保、保洁人员工资；业务楼维修维护（电梯、消防、空调等）。', '）项目开展情况：业务楼日常管理维修、聘用人员工资、律师咨询服务、职称评审、人力资源和社会保障业务培训、办公设备购置、职工文化教育建设等', '）项目成果：规范我市建筑领域的劳动用工管理，维护农民工的合法权益，构建和谐的劳动关系', '）项目依据：《乌鲁木齐市事业单位工作人员考核工作的通知》、《乌鲁木齐市事业单位聘用人员培训暂行办法》、《乌鲁木齐市事业单位岗位设置管理暂行办法', '）项目依据：根据中央和自治区关于构建和谐劳动关系的指导意见、国家人力资源社会保障部办公厅《关于做好劳务派遣行政许可工作的通知》（人社厅发〔', '）项目开展情况：认真贯彻市委关于构建和谐劳动关系实施方案；组织召开了构建和谐劳动关系综合试验区工作协调会；印制构建和谐劳动关系宣传资料，编印《构建和谐劳动关系员工读本》、《构建和谐劳动关系企业读本》；做好我市国企负责人薪酬制度改革的各项工作；', '）项目成果：起草我市关于构建和谐劳动关系的实施方案；提请市政府成立了乌鲁木齐市构建和谐劳动关系领导小组；扩大构建和谐劳动关系宣传力度；发布', '）项目开展情况：促进就业相关政策宣传、就业创业服务平台建设、促进农村富余劳动力转移就业、公共就业服务平台建设、政府购买公共就业服务等与促进就业工作。', '）项目成果：加强公共就业服务规范化建设，推进社区、行政村劳动就业社会保障服务站标准化建设，不断提高公共就业服务人员素质和服务能力。组织开展就业服务专项活动，推动供需对接。搭建农村富余劳动转移就业和技能培训平台，促进农村富余劳动力有序外出就业，鼓励就地就近转移就业，扶持返乡创业。组织推动季节性务工，增加农牧民收入。', '号）、按照自治区党委人才办《自治区人才培养天山计划》《自治区人才引进天池计划》（新人才办字﹝', '支持经费主要用于改善引进人才及其团队在疆的工作和生活条件。创新和创业人才的支持经费用于生活补助，额度控制在', '的比例分年度拨付用人单位。同时通过赴内地高校科研院所短期培训、高级项目研修班等形式，对培养人选进行再培养。', '）项目成果：入选的天池计划培养人选，利用其掌握核心技术，有效解决了所在单位、行业发展中重大技术难题；提供了丰富的企业经营管理经验；承担科研攻关项目取得了一定研究成果，推动了我市经济社会发展。进一步优化人才培养引进发展环境，吸引和鼓励优秀人才在我市创业工作，确保赴内地重点高校引进的人才能', '）项目开展情况：社区为民办实事（制作宣传栏、社区夜校设备、大学生补助、阅览室书柜、贫困家庭慰问、学校减速带等）、个人生活费（房租、暖气费、物业费等）', '）项目成果：落实各项社保惠民政策、为民办实事办好事，得到社区居民的好评。加强了基层组织建设。', '号文件、《新疆维吾尔自治区劳动和社会保障厅关于灵活就业人员、自由职业者参加基本养老保险有关问题的通知》新劳社字〔', '）项目开展情况：机关事业单位养老保险改革清算工作的外出调研培训工作；社保案件调查核实工作、印刷养老保险政策宣传资料。', '）项目依据：《工伤保险条例》、《工伤认定办法》中华人民共和国劳动和社会保障部令（第', '）项目开展情况：涉及到外省市区疑难案件的调查、取证工作、举办参保企业工伤保险培训班、工伤保险政策的宣传、宣传资料的印刷、工伤保险工作人员参加内地人社部等相关部门举办的工伤保险会议及业务培训学习。', '）项目成果：落实工伤保险政策，保障参保人员正常享受工伤待遇，确保社保资金安全有效运行。', '）项目依据：《关于对乌鲁木齐市劳动就业社会保障综合服务中心改扩建项目的立项批复》（乌发改函〔', '号原金马大酒店，属市政府重点建设项目，用于办公场所装修改造。按照市政府采购流程，由设计单位新疆建筑科学研究院（有限责任公司）完成项目整体的施工设计，新疆城市建筑装饰工程有限公司负责承建，新疆泽强工程项目管理有限公司负责工程监理。', '）项目成果：实现基层劳动就业和社会保障公共服务场所设施设备标准化、人员队伍专业化、管理服务规范化、基层平台信息化和网络化，改善基层人社部门服务环境，为民服务能力显著提升，确保各族群众共享就业和社会保障公共服务成果。', '）项目成果：鉴于转移就业人员技能、语言等综合能力远低于上岗条件的实际，安排专项资金，用于解决食宿安排、人员培训、服务保障等各个环节支出。通过实地查看食宿安排、工作环境，了解掌握培训教育、', '服务管理、带队干部管理作用发挥等情况，指导开展转移就业工作。有效解决了用工企业的后顾之忧，提高了任务承接单位工作积极性。', '）项目依据：《转发国家机关工作人员及离退休人员死亡一次性抚恤金发放有关问题的通知》乌民发【', '）项目依据：新疆维吾尔自治区财政厅、人力资源和社会保障厅关于印发《自治区失业保险宣传培训资金管理暂行办法》的通知（新财社〔', '）项目开展的情况：失业保险宣传培训资金安排用于统筹地区失业保险、失业动态的宣传、培训以及开展失业保险工作所需的业务支出费用。严格按照文件要求，', '年我市采取传统与新媒体相结合的方式多途径开展失业保险的宣传和培训。印刷了《失业保险政策', '问》、《失业人员职业指导手册》、《参保职工技能提升补贴政策问答》、《参保职工技能提升补贴挂图》，印制宣传手提袋、宣传纸杯、宣传抽纸，选择覆盖面广、目标针对性强、贴近性好的', '家企业及区县的工作人员，开展以失业动态经办工作和工作专用上报软件上机操作为内容的培训班两期。', '）项目成果：大力宣传失业保险政策，让广大职工和企业都了解参保的权利和义务以及最新的失业保险惠民政策，努力提升全社会对失业保险的知晓度，充分发挥失业保险保生活、防失业、促就业功能。', '3）项目成果：签订《乌鲁木齐市医保支付价格谈判机制研究项目合同》，初步形成医保支付价格谈判机制研究方向、目标。', '）项目成果：完成规划预审意见审批；完成环保手续；完成土地预审意见；完成可行性研究报告。', '经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '“三公”经费：指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>294</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>乌鲁木齐市守合同重信用企业协会章程</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2013-11-08</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/gk/fwsx/167841.htm</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['策,遵守社会道德风尚；积极为企业提供相关服务,提高企业信用意识和信用管理水平；促进企业运用合同自我约束、自我保护、自我发展,提高企业的生产经营管理水平和经济效益。', '（三）组织会员开展与省内外、国内外企业的联系和交流,传播信息,组织考察学习,开拓国内外市场。', '（九）发挥协会组织的桥梁和纽带作用,为政府提供可行性的操作依据,为会员单位创造内和外顺的工作环境。', '（一）凡承认协会章程、被认定为乌鲁木齐市级的 “守合同重信用”企业,按照自愿申请原则,经批准,成为本会单位会员。', '第十六条理事会每届四年。因特殊情况需提前或延期换届的,须由理事会表决通过,报业务主管单位审查并经社团登记管理机关批准同意。但换届延期最长不超过两年。', '第十七条理事会是会员代表大会的执行机构,在闭会期间领导本协会开展日常工作,对会员代表大会负责。', '第二十一条协会设立常务理事会。常务理事会由理事会选举产生,在理事会闭会期间行使第十八条第一、三、五、六、七、八、九项职权,对理事会负责。', '第二十二条在特殊情况下,常务理事会可行使第十八条第二项职权,但在召开理事会或会员代表大会时向理事会或会员代表大会报告。常务理事会设立办事机构,在秘书长领导下处理日常工作。', '第二十三条常务理事会须有三分之二以上常务理事出度方能召开,其决议须经到会常务理事三分之二以上表决通过方能生效。', '第二十六条协会会长、副会长、秘书长如超过最高任职年龄的,须经理事会表决通过,报业务主管单位审查并经社团登记管理机关批准同意后,方能任职。', '第二十七条协会会长、副会长、秘书长任期四年。会长、副会长、秘书长任期最长不得超过两届。因特殊情况需延长任期的,须经会员代表大会三分之二以上会员代表表决通过,报业务主管单位审查并经社团登记管理机关批准同意后,方可任职。', '（三） 提名副秘书长以及各办事机构、分支机构、代表机构、实体机构的主要负责人,交理事会或常务理事会决定；', '第三十五条协会配备具有专业资格的会计、出纳人员。会计人员调动工作或离职时,必须与接管人员办清交接手续。', '第三十六条协会的资产管理执行国家规定的财务管理制度,接受会员代表大会和政府有关部门的监督。', '第三十七条协会换届或更换法定代表人之前,必须接受社团登记管理机关和业务主管单位组织的财务审计。', '第三十九条对本协会章程的修改,须经理事会或常务理事会表决通过后报会员代表大会审议。', '第四十条 协会修改的章程,须在会员代表大会通过后十五日内,经业务主管单位审查同意,报社团登记管理机关核准后生效。', '第四十一条协会完成宗旨或自行解散或由于分立、合并等原因需要注销的,由理事会或常务理事会提出终止动议。', '第四十三条协会终止前,须在业务主管单位及有关机关指导下成立清算组织,清理债权债务,处理善后事宜。清算期间,不开展清算以外的活动。', '第四十五条协会终止后的剩余财产,在业务主管单位和社团登记管理机关的监督下,按照国家有关规定,用于发展与本团体宗旨相关的事业。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>294</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>乌鲁木齐市商务局粮食局年部门预算公开报告</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2016-02-24</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/bmyjs/swj/365830.htm</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['根据《关于下达经济建设系统2016年部门预算的通知》（乌财建〔2016〕21号）文件要求，现将经市财政局批复的市商务局（粮食局）2016年部门预算及“三公”经费信息公开如下：', '（一）主要职能。乌鲁木齐市商务局 ( 粮食局 ) 是市人民政府主管全市国内外贸易、对外经济技术合作和粮食工作的工作部门，承担乌鲁木齐市国内贸易管理、对外贸易管理、外商投资和对外经济技术合作、粮食流通管理等职责，协调市级商业中心、特色商业街和各类商品交易市场的规划与建设，研究拟定本市会展经济的规划和计划，承办市人民政府交办的其他事项，详情如下：', '1、贯彻执行国家、自治区和我市有关内外贸易、外资、对外经济合作和粮食工作的方针、政策和法律、法规，起草有关地方性法规、规章草案和政策措施，编制我市商务粮食工作发展规划及中长期规划、年度计划，并组织实施和监督检查。', '2、负责推进流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动流通标准化和连锁经营、商业特许经营、物流配送、电子商务等现代流通方式的发展。', '3、会同有关部门拟订我市国内贸易发展规划；促进城乡市场发展，指导大宗产品批发市场规划和城市商业网点规划、商业体系建设工作；推进有关农村市场体系建设；组织实施农村现代流通网络工程；指导、推进供销合作事业发展。', '4、承担协调整顿和规范市场经济秩序工作的责任；推动商务粮食领域信用建设；指导商业信用销售；按有关规定对特殊流通行业进行监督管理。', '5、承担组织实施重要消费品市场调控和重要生产资料流通管理的责任；负责建立健全重要生活必需品市场供应监测预警体系和应急管理机制；监测分析市场运行、重要商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；按分工负责重要消费品储备管理和市场调控工作；按有关规定对畜禽屠宰、酒类流通、药品流通、成品油流通、食盐流通等行业进行监督管理；组织指导“三绿工程”，负责“菜篮子”产品流通行业管理的相关工作；负责权限内设置畜禽定点屠宰厂（场）的审定。', '6、监督管理对外贸易工作，促进对外贸易发展；承担对全市对外贸易经营者备案登记工作；指导我市出口基地和出口品牌建设工作；推进我市进出口贸易标准化工作；管理加工贸易业务；组织实施与进出口公平贸易相关工作。', '7、监督管理外商投资工作；指导全市外商投资促进工作；参与拟订我市外商投资中长期发展规划，并组织实施；负责权限内外商投资企业合同、章程的审批。', '8、负责对外经济合作工作；指导对外经济合作促进工作；依法监督境外投资、对外工程承包、对外经济合作、对外劳务合作和援外项目工作。', '9、会同有关部门制定促进服务贸易和服务外包发展的规划、政策并组织实施，推动服务外包平台建设。 10、指导和管理贸易投资促进工作；指导、协调我市举办的商务领域交易会、洽谈会、博览会、展览会和有关招商活动。 11、负责粮食流通行政管理和行业指导；指导政策性粮食购销和粮食产销合作；负责政策性粮食和军粮的供应与管理；负责粮食流通监督检查；负责储备粮管理工作；负责粮食收购许可及粮油仓储单位备案管理工作。 12、指导商务粮食领域信息化建设，协调信息资源的开发利用和共享，建立完善商务粮食信息公共服务体系；指导和推进电子商务应用与发展。 13、承办市委、市人民政府交办的其他事项。', '（二）机构设置。乌鲁木齐市商务局（粮食局）设14个内设机构：办公室、政治处、政策法规处、市场体系建设处、市场秩序处（市酒类专卖管理局、市畜禽屠宰加工冷藏行业管理办公室）、市场运行监测调节处、服务贸易和商贸服务处、对外贸易处、外国投资与对外经济合作处、粮食管理处、粮食储备调控处、财务审计处、纪检监察室、老干部工作处。', '市商务局（粮食局）下设3个直属事业单位（均参照公务员管理）：中国国际贸易促进委员会乌鲁木齐市委员会（中国国际商会乌鲁木齐商会）（副县级）、乌鲁木齐市商务（粮食）稽查支队（副县级）、乌鲁木齐市会展管理中心（中国-亚欧博览会乌鲁木齐市领导委员会办公室）（正科级）。', '新疆国际会展中心为独立核算单位，财政供养人数88人，其中在职65人，离休4人，退休19人。', '乌鲁木齐市商务局（粮食局）汇总2016年度部门预算报表编制范围的单位共计6个，名单见下表：', '乌鲁木齐市商务局（粮食局）2016年部门预算公开内容包括乌鲁木齐市商务局（粮食局）本级预算和所属五个二级预算单位（中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市酒类专卖管理局、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心、新疆国际会展中心）在内的汇总预算。其中，乌鲁木齐市商务局 ( 粮食局 ) 本级、中国国际贸易促进委员会乌鲁木齐市委员会、乌鲁木齐市商务（粮食）稽查支队、乌鲁木齐市会展管理中心纳入本级统一核算，新疆国际会展中心和乌鲁木齐市酒类专卖管理局为独立核算单位，其中，乌鲁木齐市酒类专卖管理局无预算收支和人员编制。', '（二）因公出国（境）费用。本年度因公出国（境）费用未安排预算，出国团组数及人数均为0。', '（三）公务接待费用。本年度公务接待费用预算支出2.43万元，较上年减少0.25万元，主要为接待有关兄弟省市单位前来调研、学习考察等支出。', '（四）公务用车购置和运行维护费。本年度公务用车购置和运行维护费40.5万元，其中，公务用车购置费为0，公务用车运行维护费40.5万元，全部为基本支出。主要为2016年度车辆保险、执法车辆用油、车辆维修费等，其中购置公务用车数量为0，单位公务用车保有量16辆，单位年末一般公务用车16辆，为执法检查用车辆。', '我局按照要求对27张预算信息公开表格进行了公示，其中有6张为空表，分别为基金基本支出--工资福利支出、基金基本支出--对个人和家庭补助支出、基金基本支出--商品和服务支出，非税收入基本支出--工资福利支出、非税收入基本支出--对个人和家庭补助支出、非税收入基本支出--商品和服务支出。', '（一）基本支出：是指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（二）项目支出：是指在基本支出之外为完成特定的行政工作任务或事业发展目标所发生的支出。', '（三）非税收入：是指除税收以外，由各级政府、国家机关、事业单位、代行政府职能的社会团体及其他组织依法利用政府权力、政府信誉、国家资源、国有资产或提供特定公共服务、准公共服务取得的财政性资金，是政府财政收入的重要组成部分。', '（四）“三公”经费：指各部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际差旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类接待（含外宾接待）费用。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>乌鲁木齐市守合同重信用企业协会章程</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2014-05-20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.urumqi.gov.cn/gk/fwsx/191943.htm</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['乌鲁木齐市“守合同重信用”企业协会章程 第一章总则 第一条 协会名称：乌鲁木齐市“守合同重信用“企业协会 第二条 协会的性质：协会是由会员自愿组成的非盈利性社会组织。 第三条 协会的宗旨：遵守宪法、法律、法规和国家政 策，遵守社会道德风尚；积极为企业提供相关服务，提高企业信用意识和信用管理水平；促进企业运用合同自我约束、自我保护、自我发展，提高企业的生产经营管理水平和经济效益。 第四条 协会接受业务主管单位乌鲁木齐市工商行政 管理局和登记管理机关新疆维吾尔自治区民政厅的业务指导和监督管理。 第五条 协会的住所：乌市中山路133号 第二章 业务范围 第六条 协会的业务范围： （一） 组织会员单位学习和宣传贯彻有关信用、合同法 律、法规，组织开展合同和信用管理业务培训，提高依法签约能力和履约自觉性。 （二） 组织会员之间以及会员与省内外企业之间的学 术研究和业务交流，总结推广信用及合同管理先进经验，提高企业信用及合同管理水平。 （三） 组织会员开展与国内外企业的联系和交流，传播 信息，组织考察学习，开拓国内外市场。 （四） 为会员单位提供信息和法律咨询服务。 （五） 推行合同示范文本工作。 （六） 做好“守合同重信用”企业的推荐工作。 （七） 依法维护会员的合法权益。 （八） 调解会员之间的合同纠纷。 （九） 发挥协会民间组织的桥梁作用，争取政府支持， 为会员单位创造内和外顺的工作环境。 （十） 指导下级协会的工作，促进全区企业合同信用工 作的开展。 （十一）为会员单位提供其他的关服务性工作。 （十二）接受乌鲁木齐市工商行政管理局委托交办的任务。 第三章 会员 第七条 本会会员由单位会员和个人会员组织。 （一） 凡承认协会章程、被认定市级以上“守合同重信 用”企业的和各区、县、市企业信用协会，自愿申请，经批准，成为本会单位会员。 （二） 熟悉有关法律法规，在企业信用建设理论研究方 面有造诣的个人，承认协会章程，自愿申请，经批准，成为本会个人会员。 第八条 会员入会的程序是： （一） 提交入会申请书； （二） 经常务理事会讨论通过； （三） 由协会秘书处发给会员证。 第九条 会员由法定代表人或其委托人参加本会活 动。 第十条 会员享有以下权利： （一） 享有会员的表决权、选举权和被选举权； （二） 对协会工作有批评、建议和监督的权利； （三） 有借助协会名义扩大企业知名度和产品市场 占有率的权利； （四） 有优先参加协会组织的各项活动的权利； （五） 有优先获得协会提供的各项服务的权利； （六） 有提请协会维护企业合法权益的权利； （七） 有提请协会解决合同纠纷的权利； （八） 有自愿申请退会的权利。 第十一条 会员应履行以下义务： （一） 遵守协会章程，执行协会决议； （二） 完成协会交办的任务，接受协会委托的工作； （三） 参加和支持协会组织的各项活动，向协会反 映企业信用及合同管理方面的意见和要求； （四） 会员间互助合作、相互支持、共同发展； （五） 维护会员的合法权益； （六） 接受会员之间合同纠纷的调解工作； （七） 按期缴纳会费。 第十二条 会员退会应书面通知本会，并交回会员 证。会员如一年不缴纳会费或不参加本协会活动的，视为自动退会。 第十三条 会员有严重违反协会章程，经教育不改 者；被注销或吊销营业执照及严重失信行为的，经常务理事会表决通过，取消其会员资格。 第四章 组织机构和负责人产生、罢免 第十四条 协会的最高权力机构是会员代表大会。 会员代表大会的职权是： （一） 制定和修改章程； （二） 选举和罢免理事； （三） 审议理事会的工作报告和财务报告； （四） 决定终止事宜； （五） 讨论决定协会的其他重要事项。 第十五条 会员代表大会议决事项，须经到会会员 代表半数以上表决通过方能生效。 第十六条 理事会每届四年。因特殊情况需提前或延期换届的，须由理事侍表决通过，报业务主管单位审查并经社团登记管理机关批准同意。但换届延期最长不超过两年。 第十七条 理事会是会员代表大会的执行机构，在闭会期间领导本协会开展日常工作，对会员代表大会负责。 第十八条 理事会的职权是： （一） 执行会员代表大会的决议； （二） 选举和罢免会长、副会长、秘书长； （三） 筹备召开会员代表大会 （四） 向会员代表大会报告工作和财务状况； （五） 决定会员的吸收或除名； （六） 决定设立办事机构、分支机构、代表机构和实 体机构； （七） 决定副秘书长、各机构主要负责人的聘任； （八） 领导本团体各机构开展工作； （九） 制定内部管理制度。 第十九条 理事会须有三分之二以上理事出度方能召 开，其决议须经到会理事三分之二以上表决通过方能生效。 第二十条 理事会原则上每年召开一次。情况特殊的，也可采用通讯等形式召开。 第二十一条 协会设立常务理事会。常备理事会由理事会选举产生，在理事会闭会期间行使第十八条第一、三、五、六、七、八、九项职权，对理事会负责。 第二十二条 在特殊情况下，常务理事会可行使第十八条第二项职权，但在召开理事会或会员代表在会时向理事会或会员代表在会报告。常务理事会设立办事机构，在秘书长领导下处理日常工作。 第二十三条 常务理事会须有三分之二以上常务理事出度方能召开，其决议须经到会常务理事三分之二以上表决通过方能生效。 第二十四条 常务理事会至少每年召开一次。情况特殊的，也可采用通讯等形式召开。 第二十五条 协会的会长、副会长、秘书长必须具备下列条件： （一）坚持党的路线、方针、政策、政治素质好； （二）熟悉企业信用及法律法规知识，在协会业务领域内有较大影响； （三）身体健康，能坚持正常工作，最高任职不超过65岁； （四）具有完全民事行为能力，未受过剥夺政治权利的刑事处罚。 第二十六条 协会会长、副会长、秘书长如超过最高任职年龄的，须经理事会表决通过，报业务主管单位审查并经社团登记管理机关批准同意后，方能任职。 第二十七条 协会会长、副会长、秘书长任期四年。会长、副会长、秘书长任期最长不得超过两届。因特殊情况需延长任期的，须经会员代表大会三分之二以上会员代表表决通过，报业务主管单位审查并经社团登记管理机关批准同意后，方可任职。 第二十八条 协会会长为本协会法定代表人。 第二十九条协会会长行使下列职权： （一）召集和主持理事会、常务理事会； （二）检查会员代表大会、理事会、常务理事会决议的落实情况； （三）代表本协会签署有关重要文件。 第三十条 协会秘书长行使下列职权： （一）主持办事机构的日常工作，组织实施年度工作计划； （二）协调各地、州、市企业合同信用协会开展工作； （三）决定办事机构专职工作人员聘用和管理； （四）负责协会会员费及经费管理。 第五章 资产管理、使用原则 第三十一条 协会经费来源： （一）会员缴纳的会费； （二）在核准的业务范围内开展活动或各类有偿服务的收入； （三）有关单位和海内外人士的捐助； （四）利息； （五）其他合法收入。 第三十二条 协会按照国家有关规定收取会员会费。 第三十三条 协会的经费支出： （一）发行协会会刊，建立协会网站； （二）会议及宣传、培训费用： （三）学习交流及开展各类咨询、调研、服务等活动的费用； （四）常设机构招聘人员的工资、福利及办公设施费用等支出。 第三十四条 协会建立严格的财务管理制度，保证会计资料合法、真实、准确、完整。 第三十五条 协会配备具有专业资格的会计、出纳人员。会计人员调动工作或离职时，必须与接管人员办清交接手续。 第三十六条 协会的资产管理执行国家规定的财务管理制度，接受会员代表大会和政府有关部门的监督。 第三十七条 协会换届或更换法定代表人之前，必须接受社团登记管理机关和业务主管单位组织的财务审计。 第三十八条 协会的资产，任何单位、个人不得侵占、私分和挪用。 第六章 章程的修改程序 第三十九条 对本协会章程的修改，须经理事会或常务理事会表决通过后报会员代表大会审议。 第四十条 协会修改的章程，须在会员代表大会通过后十五日内，经业务主管单位审查同意，报社团登记管理机关核准后生效。 第七章 终止程序及终止后的财产处理 第四十一条 协会完成宗旨或自行解散或由于分立、合并等原恩需要注销的，由理事会或常务理事会提出终止动议。 第四十二条 协会终止动议须经会员代表大会表决通过，并报业务主管单位审查同意。 第四十三条 协会终止前，须在业务主管单位及有关机关指导下成立清算组织，清理债权债务，处理善后事宜。清算期间，不开展清算以外的活动。 第四十四条 协会经社会团登记管理机关办理注销登记手续后即为终止。 第四十五条 协会终止后的剩余财产，在业务主管单位和社团登记管理机关的监督下，按照国家有关规定，用于发展与本团体宗旨相关的事业。 第八章 附则 第四十六条 《乌鲁木齐市守合同重信用企业协会财务管理制度》由理事会制定。 第四十七条 本章程经二O一二年 月 日会员代表大会表决通过。 第四十八条 本章程的解释权属本协会的理事会。 第四十九条 本章程自社团登记管理机关核准之日起生效。', '策，遵守社会道德风尚；积极为企业提供相关服务，提高企业信用意识和信用管理水平；促进企业运用合同自我约束、自我保护、自我发展，提高企业的生产经营管理水平和经济效益。', '第十六条 理事会每届四年。因特殊情况需提前或延期换届的，须由理事侍表决通过，报业务主管单位审查并经社团登记管理机关批准同意。但换届延期最长不超过两年。', '第十七条 理事会是会员代表大会的执行机构，在闭会期间领导本协会开展日常工作，对会员代表大会负责。', '第二十一条 协会设立常务理事会。常备理事会由理事会选举产生，在理事会闭会期间行使第十八条第一、三、五、六、七、八、九项职权，对理事会负责。', '第二十二条 在特殊情况下，常务理事会可行使第十八条第二项职权，但在召开理事会或会员代表在会时向理事会或会员代表在会报告。常务理事会设立办事机构，在秘书长领导下处理日常工作。', '第二十三条 常务理事会须有三分之二以上常务理事出度方能召开，其决议须经到会常务理事三分之二以上表决通过方能生效。', '第二十六条 协会会长、副会长、秘书长如超过最高任职年龄的，须经理事会表决通过，报业务主管单位审查并经社团登记管理机关批准同意后，方能任职。', '第二十七条 协会会长、副会长、秘书长任期四年。会长、副会长、秘书长任期最长不得超过两届。因特殊情况需延长任期的，须经会员代表大会三分之二以上会员代表表决通过，报业务主管单位审查并经社团登记管理机关批准同意后，方可任职。', '第三十五条 协会配备具有专业资格的会计、出纳人员。会计人员调动工作或离职时，必须与接管人员办清交接手续。', '第三十六条 协会的资产管理执行国家规定的财务管理制度，接受会员代表大会和政府有关部门的监督。', '第三十七条 协会换届或更换法定代表人之前，必须接受社团登记管理机关和业务主管单位组织的财务审计。', '第三十九条 对本协会章程的修改，须经理事会或常务理事会表决通过后报会员代表大会审议。', '第四十条 协会修改的章程，须在会员代表大会通过后十五日内，经业务主管单位审查同意，报社团登记管理机关核准后生效。', '第四十一条 协会完成宗旨或自行解散或由于分立、合并等原恩需要注销的，由理事会或常务理事会提出终止动议。', '第四十三条 协会终止前，须在业务主管单位及有关机关指导下成立清算组织，清理债权债务，处理善后事宜。清算期间，不开展清算以外的活动。', '第四十五条 协会终止后的剩余财产，在业务主管单位和社团登记管理机关的监督下，按照国家有关规定，用于发展与本团体宗旨相关的事业。']</t>
         </is>
